--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E112B8-85E8-44D2-8FE6-7CA92B78795F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68470279-103A-439E-83D9-2E18FCF18A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -133,16 +141,94 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>cl1-geert.mp3</t>
+  </si>
+  <si>
+    <t>cl2-geert.mp3</t>
+  </si>
+  <si>
+    <t>cl3-geert.mp3</t>
+  </si>
+  <si>
+    <t>cl-geert.mp4</t>
+  </si>
+  <si>
+    <t>cl-geert-eind.mp4</t>
+  </si>
+  <si>
+    <t>fl-marlies.mov</t>
+  </si>
+  <si>
+    <t>fl-valerie-audio.m4a</t>
+  </si>
+  <si>
+    <t>fl-valerie-video.mov</t>
+  </si>
+  <si>
+    <t>mall-tineke1.mp4</t>
+  </si>
+  <si>
+    <t>mall-tineke2.mp4</t>
+  </si>
+  <si>
+    <t>tbn-michieldw1-video.mp4</t>
+  </si>
+  <si>
+    <t>tbn-michieldw2-video.mp4</t>
+  </si>
+  <si>
+    <t>tbn-michieldw3-video.mp4</t>
+  </si>
+  <si>
+    <t>tbn-michieldw4-audio.wav</t>
+  </si>
+  <si>
+    <t>tbn-michieldw5-audio.wav</t>
+  </si>
+  <si>
+    <t>tbn-simon1-video.mp4</t>
+  </si>
+  <si>
+    <t>tbn-simon2-audio.wav</t>
+  </si>
+  <si>
+    <t>tbn-simon2-video.mp4</t>
+  </si>
+  <si>
+    <t>timp-koend.mp4</t>
+  </si>
+  <si>
+    <t>tpt2-els.mov</t>
+  </si>
+  <si>
+    <t>tuba-henk1.mp4</t>
+  </si>
+  <si>
+    <t>tuba-henk2.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,8 +254,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,18 +537,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -471,190 +557,490 @@
       <c r="C1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>282.02</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>268.61699999999996</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>262.41499999999996</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>277.67399999999998</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>290.22699999999998</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>293.88800000000003</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
+        <v>298.58299999999997</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" s="1">
+        <v>279.89400000000001</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>294.90300000000002</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>297.851</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D12" s="1">
+        <v>292.14499999999998</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D13" s="1">
+        <v>299.642</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>268</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>468.13499999999999</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D16" s="1">
+        <v>300.51099999999997</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D21" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D22" s="1">
+        <v>301.13400000000001</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1">
+        <v>289.39499999999998</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D24" s="1">
+        <v>301.50800000000004</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1">
+        <v>289.327</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1">
+        <v>289.06799999999998</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D27" s="1">
+        <v>277.26400000000001</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D28" s="1">
+        <v>300.96500000000003</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1">
+        <v>300.18299999999999</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1">
+        <v>300.51800000000003</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D31" s="1">
+        <v>287.30799999999999</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D32" s="1">
+        <v>295.13900000000001</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D33" s="1">
+        <v>292.90499999999997</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D34" s="1">
+        <v>301.25800000000004</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D35" s="1">
+        <v>300.75700000000001</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1">
+        <v>228.37099999999998</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>222.279</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1">
+        <v>282.60500000000002</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="1">
+        <v>297.90499999999997</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1">
+        <v>291.13300000000004</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1">
+        <v>147.761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1">
+        <v>291.54300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1">
+        <v>286.48700000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D44" s="1">
+        <v>280.79700000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1">
+        <v>301.64400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D46" s="1">
+        <v>298.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D47" s="1">
+        <v>292.93900000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1">
+        <v>301.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D49" s="1">
+        <v>300.24700000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D50" s="1">
+        <v>296.18799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D51" s="1">
+        <v>296.68700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B52" t="s">
         <v>33</v>
       </c>
+      <c r="D52" s="1">
+        <v>274.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="1">
+        <v>312.399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="1">
+        <v>306.899</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68470279-103A-439E-83D9-2E18FCF18A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0323B00-222A-45D7-A471-0A93F4298A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>tuba-henk2.mp4</t>
+  </si>
+  <si>
+    <t>fl-karolien.mov</t>
   </si>
 </sst>
 </file>
@@ -537,9 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -752,290 +757,299 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1">
-        <v>289.39499999999998</v>
+        <v>291.36599999999999</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
-        <v>301.50800000000004</v>
+        <v>289.39499999999998</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1">
-        <v>289.327</v>
+        <v>301.50800000000004</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
-        <v>289.06799999999998</v>
+        <v>289.327</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
-        <v>277.26400000000001</v>
+        <v>289.06799999999998</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="1">
-        <v>300.96500000000003</v>
+        <v>277.26400000000001</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1">
-        <v>300.18299999999999</v>
+        <v>300.96500000000003</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1">
-        <v>300.51800000000003</v>
+        <v>300.18299999999999</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1">
-        <v>287.30799999999999</v>
+        <v>300.51800000000003</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
       </c>
       <c r="D32" s="1">
-        <v>295.13900000000001</v>
+        <v>287.30799999999999</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>292.90499999999997</v>
+        <v>295.13900000000001</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1">
-        <v>301.25800000000004</v>
+        <v>292.90499999999997</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1">
-        <v>300.75700000000001</v>
+        <v>301.25800000000004</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1">
-        <v>228.37099999999998</v>
+        <v>300.75700000000001</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1">
-        <v>222.279</v>
+        <v>228.37099999999998</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1">
-        <v>282.60500000000002</v>
+        <v>222.279</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
-        <v>297.90499999999997</v>
+        <v>282.60500000000002</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1">
-        <v>291.13300000000004</v>
+        <v>297.90499999999997</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1">
-        <v>147.761</v>
-      </c>
+        <v>291.13300000000004</v>
+      </c>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1">
-        <v>291.54300000000001</v>
+        <v>147.761</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1">
-        <v>286.48700000000002</v>
+        <v>291.54300000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1">
-        <v>280.79700000000003</v>
+        <v>286.48700000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
       </c>
       <c r="D45" s="1">
-        <v>301.64400000000001</v>
+        <v>280.79700000000003</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1">
-        <v>298.64</v>
+        <v>301.64400000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1">
-        <v>292.93900000000002</v>
+        <v>298.64</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D48" s="1">
-        <v>301.42</v>
+        <v>292.93900000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1">
-        <v>300.24700000000001</v>
+        <v>301.42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1">
-        <v>296.18799999999999</v>
+        <v>300.24700000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
       </c>
       <c r="D51" s="1">
-        <v>296.68700000000001</v>
+        <v>296.18799999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D52" s="1">
-        <v>274.19</v>
+        <v>296.68700000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
       </c>
       <c r="D53" s="1">
-        <v>312.399</v>
+        <v>274.19</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1">
+        <v>312.399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <v>306.899</v>
       </c>
     </row>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0323B00-222A-45D7-A471-0A93F4298A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7073B-8A21-4609-A436-D71B308FDEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-810" yWindow="12165" windowWidth="36585" windowHeight="22260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
+    <sheet name="parts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="115">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -213,6 +214,189 @@
   </si>
   <si>
     <t>fl-karolien.mov</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>you, yeah (ta-da-ta-da-ta-da)</t>
+  </si>
+  <si>
+    <t>All I want for Christmas is</t>
+  </si>
+  <si>
+    <t>Make my wish come true</t>
+  </si>
+  <si>
+    <t>I just want you for my own
+More than you could ever know</t>
+  </si>
+  <si>
+    <t>I don't care about the presents
+Underneath the Christmas tree</t>
+  </si>
+  <si>
+    <t>I don't want a lot for Christmas
+There is just one thing I need</t>
+  </si>
+  <si>
+    <t>timp</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <t>perc2</t>
+  </si>
+  <si>
+    <t>perc1</t>
+  </si>
+  <si>
+    <t>tuba</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>tbn</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>tpt2</t>
+  </si>
+  <si>
+    <t>tpt1</t>
+  </si>
+  <si>
+    <t>bsax</t>
+  </si>
+  <si>
+    <t>tsax</t>
+  </si>
+  <si>
+    <t>asax2</t>
+  </si>
+  <si>
+    <t>asax1</t>
+  </si>
+  <si>
+    <t>cl3</t>
+  </si>
+  <si>
+    <t>cl2</t>
+  </si>
+  <si>
+    <t>cl1</t>
+  </si>
+  <si>
+    <t>bsn</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>And I don't care about the presents
+Underneath the Christmas tree</t>
+  </si>
+  <si>
+    <t>Make my wish come true
+All I want for Christmas is you
+You, baby (ta-da-ta-da-ta-da)</t>
+  </si>
+  <si>
+    <t>(ting ting ting x13)</t>
+  </si>
+  <si>
+    <t>Oh, all the lights are shining
+so brightly everywhere
+And the sound of children's
+laughter fills the air</t>
+  </si>
+  <si>
+    <t>And everyone is singing
+I hear those sleigh bells ringing</t>
+  </si>
+  <si>
+    <t>Santa, won't you bring me the one I really need?
+Won't you please bring my baby to me?</t>
+  </si>
+  <si>
+    <t>Oh, I don't want a lot for Christmas
+This is all I'm asking for</t>
+  </si>
+  <si>
+    <t>I just wanna see my baby
+Standing right outside my door</t>
+  </si>
+  <si>
+    <t>Oh, I just want you for my own
+More than you could ever know</t>
+  </si>
+  <si>
+    <t>You, baby
+You, baby</t>
+  </si>
+  <si>
+    <t>You!</t>
+  </si>
+  <si>
+    <t>Make my wish come true
+All I want for Christmas
+(ta-da-ta-da-ta-da)</t>
+  </si>
+  <si>
+    <t>All I want for Christmas is you, baby
+All I want for Christmas is you</t>
+  </si>
+  <si>
+    <t>patroon</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>asax1-regine.mp4</t>
+  </si>
+  <si>
+    <t>asax2-dirk.mov</t>
+  </si>
+  <si>
+    <t>bsn-chris.mp4</t>
+  </si>
+  <si>
+    <t>cl1-heleenba.mp4</t>
+  </si>
+  <si>
+    <t>cl2-fienc.mp4</t>
+  </si>
+  <si>
+    <t>cl2-heleenba.mp4</t>
+  </si>
+  <si>
+    <t>cl3-carolien.mov</t>
+  </si>
+  <si>
+    <t>extra-boom-famdewinter.mp4</t>
+  </si>
+  <si>
+    <t>tuba-chris</t>
+  </si>
+  <si>
+    <t>tuba-henk3.mp4</t>
+  </si>
+  <si>
+    <t>tuba-henk4.mp4</t>
   </si>
 </sst>
 </file>
@@ -257,14 +441,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -275,6 +469,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:D66" totalsRowShown="0">
+  <autoFilter ref="A1:D66" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
+    <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
+    <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F1DE5A-C35A-499C-BEC4-763758593414}" name="Table1" displayName="Table1" ref="A1:X22" totalsRowShown="0">
+  <autoFilter ref="A1:X22" xr:uid="{7422152F-F009-43B1-9E41-788DBD1C06DE}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{B6581DAD-D13A-46EA-893D-78B9314D58AC}" name="measure"/>
+    <tableColumn id="2" xr3:uid="{73B97D8E-66EE-480A-8624-9C19E293F769}" name="beat"/>
+    <tableColumn id="3" xr3:uid="{8AD03024-A7BF-47A8-974D-9827CD0466FC}" name="patroon"/>
+    <tableColumn id="4" xr3:uid="{FD3404EE-9CDB-4347-8E10-0FB578A352CD}" name="fl"/>
+    <tableColumn id="5" xr3:uid="{85C0840C-2B86-4930-B3A7-AE24F6A0394A}" name="ob"/>
+    <tableColumn id="6" xr3:uid="{67FCE623-8397-45D1-B0E0-ABA4911AB6FA}" name="bsn"/>
+    <tableColumn id="7" xr3:uid="{0C7D346F-4A97-4349-8A9B-4B78C5362E46}" name="cl1"/>
+    <tableColumn id="8" xr3:uid="{F4C5264A-8CC2-4872-860D-1C8C57E15C9A}" name="cl2"/>
+    <tableColumn id="9" xr3:uid="{3DDF5B51-DBC7-4EC5-937E-952B28AA913D}" name="cl3"/>
+    <tableColumn id="10" xr3:uid="{093DFE6E-587F-4A5E-9A63-0DCE339D3627}" name="asax1"/>
+    <tableColumn id="11" xr3:uid="{718C331D-E38B-45A1-ACE5-0CFF9FBE9B5E}" name="asax2"/>
+    <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
+    <tableColumn id="13" xr3:uid="{9A8FFE56-6951-40B6-87A3-66B08365A8E9}" name="bsax"/>
+    <tableColumn id="14" xr3:uid="{47901C1A-4258-41B2-8237-DED8CEFE780A}" name="tpt1"/>
+    <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
+    <tableColumn id="16" xr3:uid="{22DE3EA3-3FA4-4E29-A012-23214E94A7D4}" name="horn"/>
+    <tableColumn id="17" xr3:uid="{8D9C7935-CD0C-444F-A162-100A173A7BFA}" name="tbn"/>
+    <tableColumn id="18" xr3:uid="{5D7B0AF4-FB39-4E3C-BB10-03DD374A3DA1}" name="bar"/>
+    <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
+    <tableColumn id="20" xr3:uid="{CA591D6D-2EA3-48EE-A75B-30C7FF9EC8D9}" name="perc1"/>
+    <tableColumn id="21" xr3:uid="{CDA35F9B-AAF7-4957-B4A6-3B005C9A9F2F}" name="perc2"/>
+    <tableColumn id="22" xr3:uid="{08CC324C-7484-42AF-BF8D-131284E39FFB}" name="mall"/>
+    <tableColumn id="23" xr3:uid="{A7D23981-FF3D-4A33-B3E5-7FB57FCDE88C}" name="timp"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,15 +780,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -589,472 +831,1909 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1">
-        <v>262.41499999999996</v>
+        <v>285.28399999999999</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1">
-        <v>277.67399999999998</v>
+        <v>297.44099999999997</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>290.22699999999998</v>
+        <v>262.41499999999996</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>293.88800000000003</v>
+        <v>277.67399999999998</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>298.58299999999997</v>
+        <v>290.22699999999998</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1">
-        <v>279.89400000000001</v>
+        <v>299.613</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>294.90300000000002</v>
+        <v>293.88800000000003</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>297.851</v>
+        <v>298.58299999999997</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1">
-        <v>292.14499999999998</v>
+        <v>297.63299999999998</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>299.642</v>
+        <v>279.89400000000001</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1">
-        <v>268</v>
+        <v>299.85300000000001</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1">
-        <v>468.13499999999999</v>
+        <v>294.90300000000002</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1">
-        <v>300.51099999999997</v>
+        <v>296.22000000000003</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="D17" s="1">
+        <v>291.71499999999997</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>297.851</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>292.14499999999998</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>299.642</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>298.14999999999998</v>
+        <v>268</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
-        <v>301.13400000000001</v>
+        <v>468.13499999999999</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1">
-        <v>291.36599999999999</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>289.39499999999998</v>
+        <v>300.51099999999997</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1">
-        <v>301.50800000000004</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1">
-        <v>289.327</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1">
-        <v>289.06799999999998</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="1">
-        <v>277.26400000000001</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
       </c>
       <c r="D29" s="1">
-        <v>300.96500000000003</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
       </c>
       <c r="D30" s="1">
-        <v>300.18299999999999</v>
+        <v>301.13400000000001</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1">
-        <v>300.51800000000003</v>
+        <v>291.36599999999999</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1">
-        <v>287.30799999999999</v>
+        <v>289.39499999999998</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
-        <v>295.13900000000001</v>
+        <v>301.50800000000004</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1">
-        <v>292.90499999999997</v>
+        <v>289.327</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1">
-        <v>301.25800000000004</v>
+        <v>289.06799999999998</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
       </c>
       <c r="D36" s="1">
-        <v>300.75700000000001</v>
+        <v>277.26400000000001</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1">
-        <v>228.37099999999998</v>
+        <v>300.96500000000003</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1">
-        <v>222.279</v>
+        <v>300.18299999999999</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>282.60500000000002</v>
+        <v>300.51800000000003</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
       </c>
       <c r="D40" s="1">
-        <v>297.90499999999997</v>
+        <v>287.30799999999999</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>291.13300000000004</v>
+        <v>295.13900000000001</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1">
-        <v>147.761</v>
-      </c>
+        <v>292.90499999999997</v>
+      </c>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1">
-        <v>291.54300000000001</v>
-      </c>
+        <v>301.25800000000004</v>
+      </c>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
-        <v>286.48700000000002</v>
-      </c>
+        <v>300.75700000000001</v>
+      </c>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1">
-        <v>280.79700000000003</v>
-      </c>
+        <v>228.37099999999998</v>
+      </c>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1">
-        <v>301.64400000000001</v>
-      </c>
+        <v>222.279</v>
+      </c>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1">
-        <v>298.64</v>
-      </c>
+        <v>282.60500000000002</v>
+      </c>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1">
-        <v>292.93900000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297.90499999999997</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1">
-        <v>301.42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291.13300000000004</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1">
-        <v>300.24700000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147.761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1">
-        <v>296.18799999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291.54300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1">
-        <v>296.68700000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286.48700000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="1">
+        <v>280.79700000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1">
+        <v>301.64400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="1">
+        <v>298.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1">
+        <v>292.93900000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1">
+        <v>301.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1">
+        <v>300.24700000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="1">
+        <v>296.18799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="1">
+        <v>296.68700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="1">
         <v>274.19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="1">
+        <v>302.01499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D63" s="1">
         <v>312.399</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D64" s="1">
         <v>306.899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="1">
+        <v>298.065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="1">
+        <v>310.72500000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551FE95-EB3E-4D38-8BED-364F8D6B04EB}">
+  <dimension ref="A1:X22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" customWidth="1"/>
+    <col min="20" max="21" width="8" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7073B-8A21-4609-A436-D71B308FDEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15495E39-5D67-4ED2-9578-27C52820DF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-810" yWindow="12165" windowWidth="36585" windowHeight="22260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -453,10 +453,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,7 +478,7 @@
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,7 +511,7 @@
     <tableColumn id="21" xr3:uid="{CDA35F9B-AAF7-4957-B4A6-3B005C9A9F2F}" name="perc2"/>
     <tableColumn id="22" xr3:uid="{08CC324C-7484-42AF-BF8D-131284E39FFB}" name="mall"/>
     <tableColumn id="23" xr3:uid="{A7D23981-FF3D-4A33-B3E5-7FB57FCDE88C}" name="timp"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551FE95-EB3E-4D38-8BED-364F8D6B04EB}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1988,7 +1990,7 @@
         <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Q11" t="s">
         <v>35</v>
@@ -2425,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Q18" t="s">
         <v>35</v>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15495E39-5D67-4ED2-9578-27C52820DF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A5995-4418-4457-AFFC-16578D66BDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -390,13 +390,13 @@
     <t>extra-boom-famdewinter.mp4</t>
   </si>
   <si>
-    <t>tuba-chris</t>
-  </si>
-  <si>
     <t>tuba-henk3.mp4</t>
   </si>
   <si>
     <t>tuba-henk4.mp4</t>
+  </si>
+  <si>
+    <t>tuba-chris.mp4</t>
   </si>
 </sst>
 </file>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D62" s="1">
         <v>302.01499999999999</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1">
         <v>298.065</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1">
         <v>310.72500000000002</v>
@@ -1401,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551FE95-EB3E-4D38-8BED-364F8D6B04EB}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A5995-4418-4457-AFFC-16578D66BDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD73D32-90C3-4F69-829F-6FD1FE65A3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50685" yWindow="1935" windowWidth="17640" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31020" yWindow="465" windowWidth="24945" windowHeight="18960" activeTab="1" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="120">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -360,9 +361,6 @@
 All I want for Christmas is you</t>
   </si>
   <si>
-    <t>patroon</t>
-  </si>
-  <si>
     <t>lyrics</t>
   </si>
   <si>
@@ -397,6 +395,24 @@
   </si>
   <si>
     <t>tuba-chris.mp4</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>arr_1</t>
+  </si>
+  <si>
+    <t>arr_2</t>
   </si>
 </sst>
 </file>
@@ -441,22 +457,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,13 +492,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:D66" totalsRowShown="0">
-  <autoFilter ref="A1:D66" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:G66" totalsRowShown="0">
+  <autoFilter ref="A1:G66" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
     <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
+    <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,28 +513,28 @@
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{B6581DAD-D13A-46EA-893D-78B9314D58AC}" name="measure"/>
     <tableColumn id="2" xr3:uid="{73B97D8E-66EE-480A-8624-9C19E293F769}" name="beat"/>
-    <tableColumn id="3" xr3:uid="{8AD03024-A7BF-47A8-974D-9827CD0466FC}" name="patroon"/>
-    <tableColumn id="4" xr3:uid="{FD3404EE-9CDB-4347-8E10-0FB578A352CD}" name="fl"/>
-    <tableColumn id="5" xr3:uid="{85C0840C-2B86-4930-B3A7-AE24F6A0394A}" name="ob"/>
+    <tableColumn id="3" xr3:uid="{8AD03024-A7BF-47A8-974D-9827CD0466FC}" name="arr"/>
+    <tableColumn id="10" xr3:uid="{093DFE6E-587F-4A5E-9A63-0DCE339D3627}" name="asax1"/>
+    <tableColumn id="11" xr3:uid="{718C331D-E38B-45A1-ACE5-0CFF9FBE9B5E}" name="asax2"/>
+    <tableColumn id="18" xr3:uid="{5D7B0AF4-FB39-4E3C-BB10-03DD374A3DA1}" name="bar"/>
+    <tableColumn id="13" xr3:uid="{9A8FFE56-6951-40B6-87A3-66B08365A8E9}" name="bsax"/>
     <tableColumn id="6" xr3:uid="{67FCE623-8397-45D1-B0E0-ABA4911AB6FA}" name="bsn"/>
     <tableColumn id="7" xr3:uid="{0C7D346F-4A97-4349-8A9B-4B78C5362E46}" name="cl1"/>
     <tableColumn id="8" xr3:uid="{F4C5264A-8CC2-4872-860D-1C8C57E15C9A}" name="cl2"/>
     <tableColumn id="9" xr3:uid="{3DDF5B51-DBC7-4EC5-937E-952B28AA913D}" name="cl3"/>
-    <tableColumn id="10" xr3:uid="{093DFE6E-587F-4A5E-9A63-0DCE339D3627}" name="asax1"/>
-    <tableColumn id="11" xr3:uid="{718C331D-E38B-45A1-ACE5-0CFF9FBE9B5E}" name="asax2"/>
-    <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
-    <tableColumn id="13" xr3:uid="{9A8FFE56-6951-40B6-87A3-66B08365A8E9}" name="bsax"/>
+    <tableColumn id="4" xr3:uid="{FD3404EE-9CDB-4347-8E10-0FB578A352CD}" name="fl"/>
+    <tableColumn id="16" xr3:uid="{22DE3EA3-3FA4-4E29-A012-23214E94A7D4}" name="horn"/>
+    <tableColumn id="22" xr3:uid="{08CC324C-7484-42AF-BF8D-131284E39FFB}" name="mall"/>
+    <tableColumn id="5" xr3:uid="{85C0840C-2B86-4930-B3A7-AE24F6A0394A}" name="ob"/>
+    <tableColumn id="20" xr3:uid="{CA591D6D-2EA3-48EE-A75B-30C7FF9EC8D9}" name="perc1"/>
+    <tableColumn id="21" xr3:uid="{CDA35F9B-AAF7-4957-B4A6-3B005C9A9F2F}" name="perc2"/>
+    <tableColumn id="17" xr3:uid="{8D9C7935-CD0C-444F-A162-100A173A7BFA}" name="tbn"/>
+    <tableColumn id="23" xr3:uid="{A7D23981-FF3D-4A33-B3E5-7FB57FCDE88C}" name="timp"/>
     <tableColumn id="14" xr3:uid="{47901C1A-4258-41B2-8237-DED8CEFE780A}" name="tpt1"/>
     <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
-    <tableColumn id="16" xr3:uid="{22DE3EA3-3FA4-4E29-A012-23214E94A7D4}" name="horn"/>
-    <tableColumn id="17" xr3:uid="{8D9C7935-CD0C-444F-A162-100A173A7BFA}" name="tbn"/>
-    <tableColumn id="18" xr3:uid="{5D7B0AF4-FB39-4E3C-BB10-03DD374A3DA1}" name="bar"/>
+    <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
     <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
-    <tableColumn id="20" xr3:uid="{CA591D6D-2EA3-48EE-A75B-30C7FF9EC8D9}" name="perc1"/>
-    <tableColumn id="21" xr3:uid="{CDA35F9B-AAF7-4957-B4A6-3B005C9A9F2F}" name="perc2"/>
-    <tableColumn id="22" xr3:uid="{08CC324C-7484-42AF-BF8D-131284E39FFB}" name="mall"/>
-    <tableColumn id="23" xr3:uid="{A7D23981-FF3D-4A33-B3E5-7FB57FCDE88C}" name="timp"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,11 +803,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -792,9 +816,10 @@
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -807,8 +832,17 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -816,56 +850,86 @@
         <v>33</v>
       </c>
       <c r="D2" s="1">
-        <v>282.02</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-17.980000000000018</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>268.61699999999996</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-31.383000000000038</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-14.716000000000008</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="1">
-        <v>285.28399999999999</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
       <c r="D5" s="1">
-        <v>297.44099999999997</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.5590000000000259</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>262.41499999999996</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-37.585000000000036</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>277.67399999999998</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-22.326000000000022</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -873,176 +937,278 @@
         <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>290.22699999999998</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-9.7730000000000246</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1">
-        <v>299.613</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.38700000000000045</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>293.88800000000003</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.1119999999999663</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>298.58299999999997</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.41700000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1">
-        <v>297.63299999999998</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.3670000000000186</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>279.89400000000001</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.105999999999995</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1">
-        <v>299.85300000000001</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.14699999999999136</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1">
-        <v>294.90300000000002</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-5.09699999999998</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-3.7799999999999727</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="1">
-        <v>296.22000000000003</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
       <c r="D17" s="1">
-        <v>291.71499999999997</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.285000000000025</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1">
-        <v>297.851</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.1490000000000009</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>292.14499999999998</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-7.8550000000000182</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>299.642</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.35800000000000409</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>268</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-32</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="1">
-        <v>468.13499999999999</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168.13499999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>300.51099999999997</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.51099999999996726</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1050,11 +1216,14 @@
         <v>33</v>
       </c>
       <c r="D29" s="1">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.8500000000000227</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1062,56 +1231,74 @@
         <v>35</v>
       </c>
       <c r="D30" s="1">
-        <v>301.13400000000001</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1340000000000146</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="1">
-        <v>291.36599999999999</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.6340000000000146</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1">
-        <v>289.39499999999998</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-10.605000000000018</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1">
-        <v>301.50800000000004</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5080000000000382</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="1">
-        <v>289.327</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-10.673000000000002</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1">
-        <v>289.06799999999998</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-10.932000000000016</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1119,38 +1306,58 @@
         <v>35</v>
       </c>
       <c r="D36" s="1">
-        <v>277.26400000000001</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-22.73599999999999</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="1">
-        <v>300.96500000000003</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.96500000000003183</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
-        <v>300.18299999999999</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.18299999999999272</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>300.51800000000003</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5180000000000291</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1158,116 +1365,164 @@
         <v>35</v>
       </c>
       <c r="D40" s="1">
-        <v>287.30799999999999</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-12.692000000000007</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>295.13900000000001</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.86099999999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="1">
-        <v>292.90499999999997</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-7.0950000000000273</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="1">
-        <v>301.25800000000004</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2580000000000382</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1">
-        <v>300.75700000000001</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.757000000000005</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="1">
-        <v>228.37099999999998</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-71.629000000000019</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="1">
-        <v>222.279</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-77.721000000000004</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="1">
-        <v>282.60500000000002</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-17.394999999999982</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="1">
-        <v>297.90499999999997</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.0950000000000273</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="1">
-        <v>291.13300000000004</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.8669999999999618</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="1">
-        <v>147.761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-152.239</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="1">
-        <v>291.54300000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.4569999999999936</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="1">
-        <v>286.48700000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-13.512999999999977</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1275,50 +1530,68 @@
         <v>33</v>
       </c>
       <c r="D53" s="1">
-        <v>280.79700000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-19.202999999999975</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>301.64400000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6440000000000055</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="1">
-        <v>298.64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.3600000000000136</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="1">
-        <v>292.93900000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-7.0609999999999786</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="D57" s="1">
-        <v>301.42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.4200000000000159</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="1">
-        <v>300.24700000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2470000000000141</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -1326,18 +1599,24 @@
         <v>33</v>
       </c>
       <c r="D59" s="1">
-        <v>296.18799999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.8120000000000118</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="1">
-        <v>296.68700000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.3129999999999882</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1345,47 +1624,68 @@
         <v>33</v>
       </c>
       <c r="D61" s="1">
-        <v>274.19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-25.810000000000002</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1">
-        <v>302.01499999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0149999999999864</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>312.399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.399000000000001</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>306.899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.8990000000000009</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-1.9350000000000023</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="1">
-        <v>298.065</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
       <c r="D66" s="1">
-        <v>310.72500000000002</v>
+        <v>10.725000000000023</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1404,28 +1704,33 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="V5" sqref="V5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" customWidth="1"/>
-    <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" customWidth="1"/>
-    <col min="20" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="7" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" customWidth="1"/>
-    <col min="24" max="24" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="24" max="24" width="40.5703125" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" customWidth="1"/>
+    <col min="32" max="32" width="7.140625" customWidth="1"/>
+    <col min="33" max="34" width="6.7109375" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" customWidth="1"/>
+    <col min="37" max="37" width="6" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
+    <col min="39" max="40" width="8" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" customWidth="1"/>
+    <col min="43" max="43" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1436,70 +1741,70 @@
         <v>87</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1512,7 +1817,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="N2" t="s">
         <v>60</v>
       </c>
       <c r="X2" t="s">
@@ -1529,26 +1834,29 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
@@ -1556,13 +1864,10 @@
       <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
       <c r="R3" t="s">
         <v>35</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>35</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -1580,37 +1885,37 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>35</v>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
       </c>
       <c r="R4" t="s">
         <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>65</v>
@@ -1627,36 +1932,36 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>35</v>
+      <c r="O5" t="s">
+        <v>60</v>
       </c>
       <c r="R5" t="s">
         <v>35</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" t="s">
         <v>35</v>
       </c>
       <c r="X5" s="2" t="s">
@@ -1674,22 +1979,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
@@ -1698,23 +2003,17 @@
         <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
       <c r="O6" t="s">
         <v>60</v>
       </c>
       <c r="P6" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
       <c r="R6" t="s">
         <v>35</v>
       </c>
@@ -1722,6 +2021,12 @@
         <v>35</v>
       </c>
       <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" t="s">
         <v>35</v>
       </c>
       <c r="W6" t="s">
@@ -1742,22 +2047,22 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>35</v>
@@ -1766,25 +2071,25 @@
         <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>35</v>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
       </c>
       <c r="R7" t="s">
         <v>35</v>
       </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="W7" t="s">
+        <v>35</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>62</v>
@@ -1875,42 +2180,42 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
         <v>35</v>
       </c>
       <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
         <v>35</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -1927,37 +2232,37 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
         <v>35</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
         <v>35</v>
       </c>
       <c r="X10" s="2" t="s">
@@ -1974,23 +2279,26 @@
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
         <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="s">
         <v>35</v>
@@ -1998,13 +2306,10 @@
       <c r="R11" t="s">
         <v>35</v>
       </c>
-      <c r="S11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" t="s">
         <v>35</v>
       </c>
       <c r="X11" s="2" t="s">
@@ -2022,22 +2327,22 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
@@ -2046,13 +2351,13 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O12" t="s">
         <v>60</v>
@@ -2070,10 +2375,10 @@
         <v>35</v>
       </c>
       <c r="T12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
         <v>35</v>
@@ -2105,10 +2410,10 @@
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -2120,10 +2425,10 @@
         <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
         <v>35</v>
@@ -2135,14 +2440,11 @@
         <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
         <v>60</v>
       </c>
-      <c r="S13" t="s">
-        <v>60</v>
-      </c>
       <c r="T13" t="s">
         <v>35</v>
       </c>
@@ -2150,7 +2452,10 @@
         <v>35</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>60</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>92</v>
@@ -2197,10 +2502,10 @@
         <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
@@ -2211,23 +2516,23 @@
       <c r="R14" t="s">
         <v>35</v>
       </c>
-      <c r="S14" t="s">
-        <v>35</v>
-      </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" t="s">
         <v>35</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2238,31 +2543,31 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
         <v>35</v>
@@ -2274,7 +2579,7 @@
         <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Q15" t="s">
         <v>35</v>
@@ -2289,10 +2594,10 @@
         <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="W15" t="s">
         <v>35</v>
@@ -2312,42 +2617,42 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
         <v>35</v>
       </c>
       <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
         <v>35</v>
       </c>
       <c r="X16" s="2" t="s">
@@ -2364,37 +2669,37 @@
       <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
       <c r="I17" t="s">
         <v>35</v>
       </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
         <v>35</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
         <v>35</v>
       </c>
       <c r="X17" s="2" t="s">
@@ -2411,23 +2716,26 @@
       <c r="C18">
         <v>10</v>
       </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
         <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="s">
         <v>35</v>
@@ -2435,13 +2743,10 @@
       <c r="R18" t="s">
         <v>35</v>
       </c>
-      <c r="S18" t="s">
-        <v>35</v>
-      </c>
-      <c r="T18" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" t="s">
         <v>35</v>
       </c>
       <c r="X18" s="2" t="s">
@@ -2459,22 +2764,22 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
         <v>35</v>
@@ -2483,13 +2788,13 @@
         <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M19" t="s">
         <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
         <v>60</v>
@@ -2507,10 +2812,10 @@
         <v>35</v>
       </c>
       <c r="T19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
         <v>35</v>
@@ -2533,35 +2838,41 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
         <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
       <c r="P20" t="s">
         <v>35</v>
       </c>
@@ -2571,17 +2882,11 @@
       <c r="R20" t="s">
         <v>35</v>
       </c>
-      <c r="S20" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" t="s">
-        <v>35</v>
-      </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="W20" t="s">
+        <v>35</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>98</v>
@@ -2628,10 +2933,10 @@
         <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
@@ -2642,16 +2947,16 @@
       <c r="R21" t="s">
         <v>35</v>
       </c>
-      <c r="S21" t="s">
-        <v>35</v>
-      </c>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" t="s">
         <v>35</v>
       </c>
       <c r="X21" s="2" t="s">
@@ -2699,10 +3004,10 @@
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
         <v>35</v>
@@ -2717,10 +3022,10 @@
         <v>35</v>
       </c>
       <c r="T22" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
         <v>35</v>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD73D32-90C3-4F69-829F-6FD1FE65A3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8D21F-215A-4AF7-9215-48B32DBE8124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50685" yWindow="1935" windowWidth="17640" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-31020" yWindow="465" windowWidth="24945" windowHeight="18960" activeTab="1" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="-48030" yWindow="1380" windowWidth="24945" windowHeight="18960" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -40,9 +39,6 @@
     <t>asax1-astrid.mov</t>
   </si>
   <si>
-    <t>asax1-jonathan.mov</t>
-  </si>
-  <si>
     <t>bar-matthias-audio.mp3</t>
   </si>
   <si>
@@ -109,9 +105,6 @@
     <t>perc2-koend-kids2.mp4</t>
   </si>
   <si>
-    <t>tbn-steven.mov</t>
-  </si>
-  <si>
     <t>tpt1-koenvh.mp4</t>
   </si>
   <si>
@@ -127,9 +120,6 @@
     <t>tsax-koend.mp4</t>
   </si>
   <si>
-    <t>tsax-steven.mov</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -163,15 +153,9 @@
     <t>cl-geert-eind.mp4</t>
   </si>
   <si>
-    <t>fl-marlies.mov</t>
-  </si>
-  <si>
     <t>fl-valerie-audio.m4a</t>
   </si>
   <si>
-    <t>fl-valerie-video.mov</t>
-  </si>
-  <si>
     <t>mall-tineke1.mp4</t>
   </si>
   <si>
@@ -205,16 +189,10 @@
     <t>timp-koend.mp4</t>
   </si>
   <si>
-    <t>tpt2-els.mov</t>
-  </si>
-  <si>
     <t>tuba-henk1.mp4</t>
   </si>
   <si>
     <t>tuba-henk2.mp4</t>
-  </si>
-  <si>
-    <t>fl-karolien.mov</t>
   </si>
   <si>
     <t>s</t>
@@ -367,9 +345,6 @@
     <t>asax1-regine.mp4</t>
   </si>
   <si>
-    <t>asax2-dirk.mov</t>
-  </si>
-  <si>
     <t>bsn-chris.mp4</t>
   </si>
   <si>
@@ -382,9 +357,6 @@
     <t>cl2-heleenba.mp4</t>
   </si>
   <si>
-    <t>cl3-carolien.mov</t>
-  </si>
-  <si>
     <t>extra-boom-famdewinter.mp4</t>
   </si>
   <si>
@@ -413,6 +385,33 @@
   </si>
   <si>
     <t>arr_2</t>
+  </si>
+  <si>
+    <t>cl3-carolien.mp4</t>
+  </si>
+  <si>
+    <t>tpt2-els.mp4</t>
+  </si>
+  <si>
+    <t>fl-karolien.mp4</t>
+  </si>
+  <si>
+    <t>fl-marlies.mp4</t>
+  </si>
+  <si>
+    <t>asax2-dirk.mp4</t>
+  </si>
+  <si>
+    <t>fl-valerie-video.mp4</t>
+  </si>
+  <si>
+    <t>asax1-jonathan.mp4</t>
+  </si>
+  <si>
+    <t>tsax-steven.mp4</t>
+  </si>
+  <si>
+    <t>tbn-steven.mp4</t>
   </si>
 </sst>
 </file>
@@ -806,9 +805,8 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -821,25 +819,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>-17.980000000000018</v>
@@ -859,7 +857,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1">
         <v>-31.383000000000038</v>
@@ -869,12 +867,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>-14.716000000000008</v>
@@ -884,12 +882,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1">
         <v>-2.5590000000000259</v>
@@ -899,12 +897,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>-37.585000000000036</v>
@@ -916,7 +914,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>-22.326000000000022</v>
@@ -926,15 +924,15 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>-9.7730000000000246</v>
@@ -944,12 +942,12 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1">
         <v>-0.38700000000000045</v>
@@ -959,12 +957,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>-6.1119999999999663</v>
@@ -976,7 +974,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>-1.41700000000003</v>
@@ -988,7 +986,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1">
         <v>-2.3670000000000186</v>
@@ -998,12 +996,12 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>-20.105999999999995</v>
@@ -1013,12 +1011,12 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1">
         <v>-0.14699999999999136</v>
@@ -1028,12 +1026,12 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
         <v>-5.09699999999998</v>
@@ -1045,7 +1043,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>-3.7799999999999727</v>
@@ -1057,7 +1055,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1">
         <v>-8.285000000000025</v>
@@ -1067,12 +1065,12 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>-2.1490000000000009</v>
@@ -1084,7 +1082,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>-7.8550000000000182</v>
@@ -1096,7 +1094,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <v>-0.35800000000000409</v>
@@ -1106,12 +1104,12 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
         <v>-32</v>
@@ -1121,12 +1119,12 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>168.13499999999999</v>
@@ -1138,7 +1136,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1150,7 +1148,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
         <v>0.51099999999996726</v>
@@ -1162,7 +1160,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1174,7 +1172,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1186,7 +1184,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1198,7 +1196,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1210,10 +1208,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1">
         <v>-1.8500000000000227</v>
@@ -1225,10 +1223,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>1.1340000000000146</v>
@@ -1240,7 +1238,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1">
         <v>-8.6340000000000146</v>
@@ -1252,7 +1250,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1">
         <v>-10.605000000000018</v>
@@ -1264,7 +1262,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>1.5080000000000382</v>
@@ -1276,7 +1274,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1">
         <v>-10.673000000000002</v>
@@ -1288,7 +1286,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D35" s="1">
         <v>-10.932000000000016</v>
@@ -1300,10 +1298,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>-22.73599999999999</v>
@@ -1313,12 +1311,12 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
         <v>0.96500000000003183</v>
@@ -1328,12 +1326,12 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1">
         <v>0.18299999999999272</v>
@@ -1345,7 +1343,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1">
         <v>0.5180000000000291</v>
@@ -1354,15 +1352,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1">
         <v>-12.692000000000007</v>
@@ -1374,7 +1372,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
         <v>-4.86099999999999</v>
@@ -1384,12 +1382,12 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
         <v>-7.0950000000000273</v>
@@ -1401,7 +1399,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1">
         <v>1.2580000000000382</v>
@@ -1413,7 +1411,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1">
         <v>0.757000000000005</v>
@@ -1425,7 +1423,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1">
         <v>-71.629000000000019</v>
@@ -1437,7 +1435,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1">
         <v>-77.721000000000004</v>
@@ -1449,7 +1447,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1">
         <v>-17.394999999999982</v>
@@ -1459,12 +1457,12 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1">
         <v>-2.0950000000000273</v>
@@ -1476,7 +1474,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1">
         <v>-8.8669999999999618</v>
@@ -1488,7 +1486,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1">
         <v>-152.239</v>
@@ -1499,7 +1497,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1">
         <v>-8.4569999999999936</v>
@@ -1510,7 +1508,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1">
         <v>-13.512999999999977</v>
@@ -1519,15 +1517,15 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1">
         <v>-19.202999999999975</v>
@@ -1538,7 +1536,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D54" s="1">
         <v>1.6440000000000055</v>
@@ -1549,7 +1547,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1">
         <v>-1.3600000000000136</v>
@@ -1560,7 +1558,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
         <v>-7.0609999999999786</v>
@@ -1571,7 +1569,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1">
         <v>1.4200000000000159</v>
@@ -1582,7 +1580,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D58" s="1">
         <v>0.2470000000000141</v>
@@ -1593,10 +1591,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1">
         <v>-3.8120000000000118</v>
@@ -1607,7 +1605,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1">
         <v>-3.3129999999999882</v>
@@ -1618,10 +1616,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>30</v>
-      </c>
-      <c r="B61" t="s">
-        <v>33</v>
       </c>
       <c r="D61" s="1">
         <v>-25.810000000000002</v>
@@ -1630,12 +1628,12 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1">
         <v>2.0149999999999864</v>
@@ -1646,7 +1644,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D63" s="1">
         <v>12.399000000000001</v>
@@ -1657,7 +1655,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D64" s="1">
         <v>6.8990000000000009</v>
@@ -1668,7 +1666,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1">
         <v>-1.9350000000000023</v>
@@ -1679,7 +1677,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D66" s="1">
         <v>10.725000000000023</v>
@@ -1701,11 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551FE95-EB3E-4D38-8BED-364F8D6B04EB}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,76 +1730,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>75</v>
-      </c>
       <c r="V1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1818,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1835,43 +1830,43 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1885,40 +1880,40 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -1932,40 +1927,40 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1979,61 +1974,61 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2047,52 +2042,52 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -2106,67 +2101,67 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2180,46 +2175,46 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2233,40 +2228,40 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2280,40 +2275,40 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2327,67 +2322,67 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -2401,64 +2396,64 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2472,64 +2467,64 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2543,67 +2538,67 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2617,46 +2612,46 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2670,40 +2665,40 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2717,40 +2712,40 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -2764,67 +2759,67 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2838,58 +2833,58 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -2903,64 +2898,64 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2974,67 +2969,67 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8D21F-215A-4AF7-9215-48B32DBE8124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF1945-398E-4307-B8E1-D42C9C995E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48030" yWindow="1380" windowWidth="24945" windowHeight="18960" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
     <sheet name="parts" sheetId="2" r:id="rId2"/>
+    <sheet name="tempo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="130">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -412,6 +413,36 @@
   </si>
   <si>
     <t>tbn-steven.mp4</t>
+  </si>
+  <si>
+    <t>lights</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>langzaam naar Gnnn</t>
+  </si>
+  <si>
+    <t>langzaam naar GRnn</t>
+  </si>
+  <si>
+    <t>langzaam naar GRGn</t>
+  </si>
+  <si>
+    <t>langzaam naar GRGR</t>
+  </si>
+  <si>
+    <t>langzaam naar nnnn</t>
+  </si>
+  <si>
+    <t>GRGR -&gt; RGRG wisselend</t>
+  </si>
+  <si>
+    <t>G dan R dan G dan R, tada geel</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
@@ -469,13 +500,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,8 +528,8 @@
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
   </tableColumns>
@@ -507,9 +538,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F1DE5A-C35A-499C-BEC4-763758593414}" name="Table1" displayName="Table1" ref="A1:X22" totalsRowShown="0">
-  <autoFilter ref="A1:X22" xr:uid="{7422152F-F009-43B1-9E41-788DBD1C06DE}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F1DE5A-C35A-499C-BEC4-763758593414}" name="Table1" displayName="Table1" ref="A1:Y22" totalsRowShown="0">
+  <autoFilter ref="A1:Y22" xr:uid="{7422152F-F009-43B1-9E41-788DBD1C06DE}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{B6581DAD-D13A-46EA-893D-78B9314D58AC}" name="measure"/>
     <tableColumn id="2" xr3:uid="{73B97D8E-66EE-480A-8624-9C19E293F769}" name="beat"/>
     <tableColumn id="3" xr3:uid="{8AD03024-A7BF-47A8-974D-9827CD0466FC}" name="arr"/>
@@ -533,7 +564,8 @@
     <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
     <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
     <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{0184330B-1672-42B1-B36F-56A5B63136A9}" name="lights"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -804,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -1697,24 +1729,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551FE95-EB3E-4D38-8BED-364F8D6B04EB}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="8" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="40.5703125" customWidth="1"/>
+    <col min="25" max="25" width="31.85546875" customWidth="1"/>
     <col min="31" max="31" width="6.7109375" customWidth="1"/>
     <col min="32" max="32" width="7.140625" customWidth="1"/>
     <col min="33" max="34" width="6.7109375" customWidth="1"/>
@@ -1728,7 +1766,7 @@
     <col min="43" max="43" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1801,8 +1839,11 @@
       <c r="X1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1818,8 +1859,11 @@
       <c r="X2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1868,8 +1912,11 @@
       <c r="X3" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1915,8 +1962,11 @@
       <c r="X4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1962,8 +2012,11 @@
       <c r="X5" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -2030,8 +2083,11 @@
       <c r="X6" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19</v>
       </c>
@@ -2089,8 +2145,11 @@
       <c r="X7" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2163,8 +2222,11 @@
       <c r="X8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -2216,8 +2278,11 @@
       <c r="X9" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>29</v>
       </c>
@@ -2263,8 +2328,11 @@
       <c r="X10" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -2310,8 +2378,11 @@
       <c r="X11" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -2384,8 +2455,11 @@
       <c r="X12" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>45</v>
       </c>
@@ -2456,7 +2530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53</v>
       </c>
@@ -2527,7 +2601,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2601,7 +2675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>61</v>
       </c>
@@ -2653,8 +2727,11 @@
       <c r="X16" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
@@ -2700,8 +2777,11 @@
       <c r="X17" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>68</v>
       </c>
@@ -2747,8 +2827,11 @@
       <c r="X18" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
@@ -2821,8 +2904,11 @@
       <c r="X19" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>79</v>
       </c>
@@ -2887,7 +2973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>87</v>
       </c>
@@ -2958,7 +3044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>94</v>
       </c>
@@ -3038,4 +3124,550 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DED98A-BE9A-4E9B-8FA1-11620A486F2F}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>135403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>230542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>327472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>421717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>522970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>711759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>905468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1094555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1289904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1480482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1623341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1674042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1766498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1863129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1914128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1947532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1980339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2013444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2050802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2091285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2133338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2212820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2293494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2375064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2454248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2775456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3093682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>3412803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3734906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4054326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>4374639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4695251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5013477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>5333493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>5655596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>5973226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>6294136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>6552713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>6692292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>6774010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>7093131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>7414638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>7733162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>7974441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>95</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>8054371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>8115212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>96</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>8141756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF1945-398E-4307-B8E1-D42C9C995E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA8B12-4E4D-4B4F-975A-45B33597644C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
@@ -3130,8 +3130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DED98A-BE9A-4E9B-8FA1-11620A486F2F}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBA8B12-4E4D-4B4F-975A-45B33597644C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED726BF3-EBDB-491B-992B-F5CDED37A136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="15000" yWindow="765" windowWidth="14145" windowHeight="14100" activeTab="1" xr2:uid="{92AD152E-D393-4772-A8CF-885F906C5386}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
     <sheet name="parts" sheetId="2" r:id="rId2"/>
-    <sheet name="tempo" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="tempo" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="142">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -443,6 +445,42 @@
   </si>
   <si>
     <t>sample</t>
+  </si>
+  <si>
+    <t>arr_3</t>
+  </si>
+  <si>
+    <t>arr_4</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>arr_5</t>
+  </si>
+  <si>
+    <t>arr_6</t>
+  </si>
+  <si>
+    <t>arr_7</t>
+  </si>
+  <si>
+    <t>arr_8</t>
+  </si>
+  <si>
+    <t>arr_9</t>
+  </si>
+  <si>
+    <t>arr_10</t>
+  </si>
+  <si>
+    <t>arr_11</t>
+  </si>
+  <si>
+    <t>n_12</t>
+  </si>
+  <si>
+    <t>n_13</t>
   </si>
 </sst>
 </file>
@@ -452,7 +490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,16 +504,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -483,17 +541,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,9 +613,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:G66" totalsRowShown="0">
-  <autoFilter ref="A1:G66" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:R66" totalsRowShown="0">
+  <autoFilter ref="A1:R66" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
@@ -532,6 +623,17 @@
     <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
+    <tableColumn id="8" xr3:uid="{34B2DE20-F220-4214-81DF-031315AF37A2}" name="arr_3"/>
+    <tableColumn id="9" xr3:uid="{88699D00-37BE-4B26-85B7-05C5E50B777C}" name="arr_4"/>
+    <tableColumn id="10" xr3:uid="{0B96D005-E2C3-4CD9-8457-961460D8EB73}" name="arr_5"/>
+    <tableColumn id="11" xr3:uid="{59F81A88-2AA9-4A0B-BB3A-3FE07403DF1B}" name="arr_6"/>
+    <tableColumn id="12" xr3:uid="{A0E67BA4-0A73-48D4-9B53-252E9564DEE0}" name="arr_7"/>
+    <tableColumn id="13" xr3:uid="{D58E7BAF-F07B-48B3-8B4F-29429BD8EF3E}" name="arr_8"/>
+    <tableColumn id="14" xr3:uid="{D3D6FB4B-747C-4845-953E-86F8D30ED24B}" name="arr_9"/>
+    <tableColumn id="15" xr3:uid="{94CD458C-9238-43A5-A20D-30AF2F2CA0C0}" name="arr_10"/>
+    <tableColumn id="16" xr3:uid="{4A9ECF9D-16AD-4FF1-90BE-964C7AF245A4}" name="arr_11"/>
+    <tableColumn id="17" xr3:uid="{9E0ED514-9B2F-4E68-9A41-8A0B58735A14}" name="n_12"/>
+    <tableColumn id="18" xr3:uid="{6CB26641-D426-4F44-BB74-4F378D9D7745}" name="n_13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -834,22 +936,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="18" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -871,8 +976,41 @@
       <c r="G1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -886,8 +1024,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -901,8 +1042,38 @@
       <c r="G3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -916,8 +1087,38 @@
       <c r="G4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -931,8 +1132,38 @@
       <c r="G5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -944,7 +1175,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -958,8 +1189,35 @@
       <c r="G7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1234,35 @@
       <c r="G8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -991,8 +1276,32 @@
       <c r="G9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1312,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1016,7 +1328,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1030,8 +1342,35 @@
       <c r="G12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1045,8 +1384,35 @@
       <c r="G13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1060,8 +1426,35 @@
       <c r="G14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>132</v>
+      </c>
+      <c r="R14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1073,7 +1466,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1085,7 +1478,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -1099,8 +1492,35 @@
       <c r="G17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1112,7 +1532,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1544,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1138,8 +1558,35 @@
       <c r="G20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1153,8 +1600,35 @@
       <c r="G21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1166,7 +1640,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1178,7 +1652,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1664,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1676,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1688,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1226,7 +1700,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1712,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1252,8 +1726,11 @@
         <v>1</v>
       </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1267,8 +1744,38 @@
         <v>1</v>
       </c>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N30" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>132</v>
+      </c>
+      <c r="R30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1279,8 +1786,38 @@
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1291,8 +1828,38 @@
         <v>1</v>
       </c>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" t="s">
+        <v>132</v>
+      </c>
+      <c r="N32" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>132</v>
+      </c>
+      <c r="R32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1303,8 +1870,38 @@
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" t="s">
+        <v>132</v>
+      </c>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+      <c r="P33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>132</v>
+      </c>
+      <c r="R33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1316,7 +1913,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -1327,8 +1924,38 @@
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>132</v>
+      </c>
+      <c r="R35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1972,38 @@
       <c r="G36" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" t="s">
+        <v>132</v>
+      </c>
+      <c r="O36" t="s">
+        <v>132</v>
+      </c>
+      <c r="P36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>132</v>
+      </c>
+      <c r="R36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1360,8 +2017,38 @@
       <c r="G37" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" t="s">
+        <v>132</v>
+      </c>
+      <c r="O37" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>132</v>
+      </c>
+      <c r="R37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1373,7 +2060,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1386,8 +2073,32 @@
       <c r="F39" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M39" t="s">
+        <v>132</v>
+      </c>
+      <c r="N39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>132</v>
+      </c>
+      <c r="R39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1401,8 +2112,38 @@
         <v>1</v>
       </c>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" t="s">
+        <v>106</v>
+      </c>
+      <c r="M40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N40" t="s">
+        <v>132</v>
+      </c>
+      <c r="P40" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1416,8 +2157,29 @@
       <c r="G41" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N41" t="s">
+        <v>132</v>
+      </c>
+      <c r="O41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +2191,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +2203,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1452,8 +2214,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" t="s">
+        <v>132</v>
+      </c>
+      <c r="O44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>132</v>
+      </c>
+      <c r="R44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1465,7 +2245,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1477,7 +2257,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1491,8 +2271,35 @@
       <c r="G47" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s">
+        <v>106</v>
+      </c>
+      <c r="O47" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>132</v>
+      </c>
+      <c r="R47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1504,7 +2311,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1516,7 +2323,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1527,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1538,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1551,8 +2358,35 @@
       <c r="G52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" t="s">
+        <v>106</v>
+      </c>
+      <c r="L52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>132</v>
+      </c>
+      <c r="R52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>119</v>
       </c>
@@ -1565,8 +2399,11 @@
       <c r="E53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1576,8 +2413,11 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1587,8 +2427,26 @@
       <c r="E55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" t="s">
+        <v>106</v>
+      </c>
+      <c r="L55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N55" t="s">
+        <v>132</v>
+      </c>
+      <c r="P55" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1598,8 +2456,26 @@
       <c r="E56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" t="s">
+        <v>106</v>
+      </c>
+      <c r="L56" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" t="s">
+        <v>132</v>
+      </c>
+      <c r="P56" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -1609,8 +2485,26 @@
       <c r="E57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" t="s">
+        <v>106</v>
+      </c>
+      <c r="L57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -1620,8 +2514,26 @@
       <c r="E58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s">
+        <v>106</v>
+      </c>
+      <c r="N58" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -1645,8 +2557,11 @@
       <c r="E60" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -1662,8 +2577,35 @@
       <c r="G61" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>132</v>
+      </c>
+      <c r="R61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -1673,8 +2615,11 @@
       <c r="E62" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -1685,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -1696,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -1706,8 +2651,38 @@
       <c r="E65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" t="s">
+        <v>106</v>
+      </c>
+      <c r="K65" t="s">
+        <v>106</v>
+      </c>
+      <c r="L65" t="s">
+        <v>106</v>
+      </c>
+      <c r="M65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N65" t="s">
+        <v>132</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>132</v>
+      </c>
+      <c r="R65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -1731,26 +2706,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551FE95-EB3E-4D38-8BED-364F8D6B04EB}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="U11" workbookViewId="1">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="8" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" customWidth="1"/>
     <col min="24" max="24" width="40.5703125" customWidth="1"/>
     <col min="25" max="25" width="31.85546875" customWidth="1"/>
     <col min="31" max="31" width="6.7109375" customWidth="1"/>
@@ -1991,6 +2969,15 @@
       <c r="H5" t="s">
         <v>32</v>
       </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
       <c r="L5" t="s">
         <v>53</v>
       </c>
@@ -2002,6 +2989,12 @@
       </c>
       <c r="R5" t="s">
         <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
       </c>
       <c r="V5" t="s">
         <v>32</v>
@@ -3127,11 +4120,805 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D352974-3C3C-46E3-9B86-52FE12335D84}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="14" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DED98A-BE9A-4E9B-8FA1-11620A486F2F}">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D27"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED726BF3-EBDB-491B-992B-F5CDED37A136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCC451-A111-4A63-A80C-E5D34162155D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
-    <workbookView xWindow="15000" yWindow="765" windowWidth="14145" windowHeight="14100" activeTab="1" xr2:uid="{92AD152E-D393-4772-A8CF-885F906C5386}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="7590" yWindow="765" windowWidth="21555" windowHeight="14100" activeTab="1" xr2:uid="{92AD152E-D393-4772-A8CF-885F906C5386}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="144">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t>n_13</t>
+  </si>
+  <si>
+    <t>perc2-vj1.mp4</t>
+  </si>
+  <si>
+    <t>perc2-vj2.mp4</t>
   </si>
 </sst>
 </file>
@@ -613,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:R66" totalsRowShown="0">
-  <autoFilter ref="A1:R66" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:R68" totalsRowShown="0">
+  <autoFilter ref="A1:R68" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
@@ -936,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H11" sqref="H11"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -2235,10 +2241,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="D45" s="1">
-        <v>-71.629000000000019</v>
+        <v>29.89</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1">
-        <v>-77.721000000000004</v>
+        <v>17.445</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2259,52 +2265,22 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D47" s="1">
-        <v>-17.394999999999982</v>
+        <v>-71.629000000000019</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" t="s">
-        <v>106</v>
-      </c>
-      <c r="J47" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" t="s">
-        <v>106</v>
-      </c>
-      <c r="O47" t="s">
-        <v>132</v>
-      </c>
-      <c r="P47" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>132</v>
-      </c>
-      <c r="R47" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1">
-        <v>-2.0950000000000273</v>
+        <v>-77.721000000000004</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -2313,174 +2289,170 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1">
-        <v>-8.8669999999999618</v>
+        <v>-17.394999999999982</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" s="1"/>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" t="s">
+        <v>106</v>
+      </c>
+      <c r="O49" t="s">
+        <v>132</v>
+      </c>
+      <c r="P49" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>132</v>
+      </c>
+      <c r="R49" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1">
-        <v>-152.239</v>
+        <v>-2.0950000000000273</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
       </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1">
-        <v>-8.4569999999999936</v>
+        <v>-8.8669999999999618</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
       </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D52" s="1">
-        <v>-13.512999999999977</v>
+        <v>-152.239</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" t="s">
-        <v>106</v>
-      </c>
-      <c r="K52" t="s">
-        <v>106</v>
-      </c>
-      <c r="L52" t="s">
-        <v>106</v>
-      </c>
-      <c r="O52" t="s">
-        <v>132</v>
-      </c>
-      <c r="P52" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>132</v>
-      </c>
-      <c r="R52" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1">
-        <v>-19.202999999999975</v>
+        <v>-8.4569999999999936</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1">
-        <v>1.6440000000000055</v>
+        <v>-13.512999999999977</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
+      <c r="G54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" t="s">
+        <v>106</v>
+      </c>
       <c r="J54" t="s">
         <v>106</v>
+      </c>
+      <c r="K54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54" t="s">
+        <v>132</v>
+      </c>
+      <c r="P54" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>132</v>
+      </c>
+      <c r="R54" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
       </c>
       <c r="D55" s="1">
-        <v>-1.3600000000000136</v>
+        <v>-19.202999999999975</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
       </c>
-      <c r="I55" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L55" t="s">
-        <v>106</v>
-      </c>
-      <c r="N55" t="s">
-        <v>132</v>
-      </c>
-      <c r="P55" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>132</v>
+      <c r="H55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>-7.0609999999999786</v>
+        <v>1.6440000000000055</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
-        <v>106</v>
-      </c>
       <c r="J56" t="s">
         <v>106</v>
-      </c>
-      <c r="L56" t="s">
-        <v>106</v>
-      </c>
-      <c r="N56" t="s">
-        <v>132</v>
-      </c>
-      <c r="P56" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1">
-        <v>1.4200000000000159</v>
+        <v>-1.3600000000000136</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -2506,10 +2478,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1">
-        <v>0.2470000000000141</v>
+        <v>-7.0609999999999786</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -2535,161 +2507,219 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1">
-        <v>-3.8120000000000118</v>
+        <v>1.4200000000000159</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1">
-        <v>-3.3129999999999882</v>
+        <v>0.2470000000000141</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
       </c>
-      <c r="H60" t="s">
-        <v>106</v>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" t="s">
+        <v>106</v>
+      </c>
+      <c r="L60" t="s">
+        <v>106</v>
+      </c>
+      <c r="N60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="1">
-        <v>-25.810000000000002</v>
+        <v>-3.8120000000000118</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K61" t="s">
-        <v>106</v>
-      </c>
-      <c r="L61" t="s">
-        <v>106</v>
-      </c>
-      <c r="M61" t="s">
-        <v>132</v>
-      </c>
-      <c r="O61" t="s">
-        <v>132</v>
-      </c>
-      <c r="P61" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>132</v>
-      </c>
-      <c r="R61" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1">
-        <v>2.0149999999999864</v>
+        <v>-3.3129999999999882</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
       </c>
       <c r="D63" s="1">
-        <v>12.399000000000001</v>
+        <v>-25.810000000000002</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>106</v>
+      </c>
+      <c r="I63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" t="s">
+        <v>106</v>
+      </c>
+      <c r="K63" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" t="s">
+        <v>106</v>
+      </c>
+      <c r="M63" t="s">
+        <v>132</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>132</v>
+      </c>
+      <c r="R63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1">
-        <v>6.8990000000000009</v>
+        <v>2.0149999999999864</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D65" s="1">
-        <v>-1.9350000000000023</v>
+        <v>12.399000000000001</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>106</v>
-      </c>
-      <c r="J65" t="s">
-        <v>106</v>
-      </c>
-      <c r="K65" t="s">
-        <v>106</v>
-      </c>
-      <c r="L65" t="s">
-        <v>106</v>
-      </c>
-      <c r="M65" t="s">
-        <v>132</v>
-      </c>
-      <c r="N65" t="s">
-        <v>132</v>
-      </c>
-      <c r="O65" t="s">
-        <v>132</v>
-      </c>
-      <c r="P65" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>132</v>
-      </c>
-      <c r="R65" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6.8990000000000009</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-1.9350000000000023</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M67" t="s">
+        <v>132</v>
+      </c>
+      <c r="N67" t="s">
+        <v>132</v>
+      </c>
+      <c r="O67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P67" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>132</v>
+      </c>
+      <c r="R67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D68" s="1">
         <v>10.725000000000023</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E68" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2707,7 +2737,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="U11" workbookViewId="1">
       <selection activeCell="X20" sqref="X20"/>
@@ -4914,7 +4944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DED98A-BE9A-4E9B-8FA1-11620A486F2F}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
     <sheetView workbookViewId="1">

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCC451-A111-4A63-A80C-E5D34162155D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D420EE-91CF-472A-810B-8299C8ECFB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
-    <workbookView xWindow="7590" yWindow="765" windowWidth="21555" windowHeight="14100" activeTab="1" xr2:uid="{92AD152E-D393-4772-A8CF-885F906C5386}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -45,9 +44,6 @@
     <t>bar-matthias-audio.mp3</t>
   </si>
   <si>
-    <t>bar-matthias-video.m4v</t>
-  </si>
-  <si>
     <t>bsax-astrid.mov</t>
   </si>
   <si>
@@ -487,6 +483,9 @@
   </si>
   <si>
     <t>perc2-vj2.mp4</t>
+  </si>
+  <si>
+    <t>bar-matthias-video.mp4</t>
   </si>
 </sst>
 </file>
@@ -944,11 +943,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -962,58 +960,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
-        <v>110</v>
-      </c>
       <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" t="s">
-        <v>131</v>
-      </c>
       <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>140</v>
-      </c>
-      <c r="R1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1021,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>-17.980000000000018</v>
@@ -1031,12 +1029,12 @@
       </c>
       <c r="F2" s="1"/>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1">
         <v>-31.383000000000038</v>
@@ -1046,42 +1044,42 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1">
         <v>-14.716000000000008</v>
@@ -1091,42 +1089,42 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1">
         <v>-2.5590000000000259</v>
@@ -1136,37 +1134,37 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1183,52 +1181,53 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1">
-        <v>-22.326000000000022</v>
+        <f>-22.326</f>
+        <v>-22.326000000000001</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>-9.7730000000000246</v>
@@ -1238,39 +1237,39 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
         <v>-0.38700000000000045</v>
@@ -1280,36 +1279,36 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>-6.1119999999999663</v>
@@ -1319,12 +1318,12 @@
       </c>
       <c r="F10" s="1"/>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>-1.41700000000003</v>
@@ -1336,7 +1335,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1">
         <v>-2.3670000000000186</v>
@@ -1346,39 +1345,39 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>-20.105999999999995</v>
@@ -1388,39 +1387,39 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1">
         <v>-0.14699999999999136</v>
@@ -1430,39 +1429,39 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>-5.09699999999998</v>
@@ -1474,7 +1473,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1">
         <v>-3.7799999999999727</v>
@@ -1486,7 +1485,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1">
         <v>-8.285000000000025</v>
@@ -1496,39 +1495,39 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>-2.1490000000000009</v>
@@ -1540,7 +1539,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>-7.8550000000000182</v>
@@ -1552,91 +1551,93 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.35800000000000409</v>
+        <f>-0.358-0.1</f>
+        <v>-0.45799999999999996</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
-        <v>-32</v>
+        <f>-32-0.05</f>
+        <v>-32.049999999999997</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1">
         <v>168.13499999999999</v>
@@ -1648,7 +1649,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1660,7 +1661,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <v>0.51099999999996726</v>
@@ -1672,7 +1673,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1684,7 +1685,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1696,7 +1697,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1708,7 +1709,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1720,10 +1721,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>-1.8500000000000227</v>
@@ -1733,15 +1734,15 @@
       </c>
       <c r="F29" s="1"/>
       <c r="N29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1">
         <v>1.1340000000000146</v>
@@ -1751,39 +1752,39 @@
       </c>
       <c r="F30" s="1"/>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="1">
         <v>-8.6340000000000146</v>
@@ -1793,39 +1794,39 @@
       </c>
       <c r="F31" s="1"/>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1">
         <v>-10.605000000000018</v>
@@ -1835,39 +1836,39 @@
       </c>
       <c r="F32" s="1"/>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
         <v>1.5080000000000382</v>
@@ -1877,39 +1878,39 @@
       </c>
       <c r="F33" s="1"/>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
         <v>-10.673000000000002</v>
@@ -1921,7 +1922,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1">
         <v>-10.932000000000016</v>
@@ -1931,42 +1932,42 @@
       </c>
       <c r="F35" s="1"/>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
         <v>-22.73599999999999</v>
@@ -1976,42 +1977,42 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1">
         <v>0.96500000000003183</v>
@@ -2021,42 +2022,42 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1">
         <v>0.18299999999999272</v>
@@ -2068,7 +2069,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
         <v>0.5180000000000291</v>
@@ -2077,39 +2078,39 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1">
         <v>-12.692000000000007</v>
@@ -2119,39 +2120,39 @@
       </c>
       <c r="F40" s="1"/>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1">
         <v>-4.86099999999999</v>
@@ -2161,33 +2162,33 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1">
         <v>-7.0950000000000273</v>
@@ -2199,7 +2200,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
         <v>1.2580000000000382</v>
@@ -2211,7 +2212,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1">
         <v>0.757000000000005</v>
@@ -2221,27 +2222,27 @@
       </c>
       <c r="F44" s="1"/>
       <c r="M44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1">
         <v>29.89</v>
@@ -2253,7 +2254,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="1">
         <v>17.445</v>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>-71.629000000000019</v>
@@ -2277,7 +2278,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>-77.721000000000004</v>
@@ -2289,7 +2290,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1">
         <v>-17.394999999999982</v>
@@ -2299,39 +2300,39 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>-2.0950000000000273</v>
@@ -2343,7 +2344,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1">
         <v>-8.8669999999999618</v>
@@ -2355,7 +2356,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1">
         <v>-152.239</v>
@@ -2366,7 +2367,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="1">
         <v>-8.4569999999999936</v>
@@ -2377,7 +2378,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>-13.512999999999977</v>
@@ -2386,42 +2387,42 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1">
         <v>-19.202999999999975</v>
@@ -2430,12 +2431,12 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="1">
         <v>1.6440000000000055</v>
@@ -2444,12 +2445,12 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>-1.3600000000000136</v>
@@ -2458,27 +2459,27 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1">
         <v>-7.0609999999999786</v>
@@ -2487,27 +2488,27 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="1">
         <v>1.4200000000000159</v>
@@ -2516,27 +2517,27 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <v>0.2470000000000141</v>
@@ -2545,30 +2546,30 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="1">
         <v>-3.8120000000000118</v>
@@ -2579,7 +2580,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1">
         <v>-3.3129999999999882</v>
@@ -2588,15 +2589,15 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="1">
         <v>-25.810000000000002</v>
@@ -2605,39 +2606,39 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" s="1">
         <v>2.0149999999999864</v>
@@ -2646,12 +2647,12 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1">
         <v>12.399000000000001</v>
@@ -2662,7 +2663,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" s="1">
         <v>6.8990000000000009</v>
@@ -2673,7 +2674,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1">
         <v>-1.9350000000000023</v>
@@ -2682,39 +2683,39 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="1">
         <v>10.725000000000023</v>
@@ -2737,10 +2738,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="U11" workbookViewId="1">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,79 +2774,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" t="s">
-        <v>64</v>
-      </c>
       <c r="X1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -2862,13 +2860,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2882,46 +2880,46 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2935,43 +2933,43 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2985,58 +2983,58 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3050,64 +3048,64 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -3121,55 +3119,55 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -3183,70 +3181,70 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3260,49 +3258,49 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3316,43 +3314,43 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3366,43 +3364,43 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -3416,70 +3414,70 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="60" x14ac:dyDescent="0.25">
@@ -3493,64 +3491,64 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3564,64 +3562,64 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -3635,67 +3633,67 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3709,49 +3707,49 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3765,43 +3763,43 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3815,43 +3813,43 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -3865,70 +3863,70 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3942,58 +3940,58 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -4007,64 +4005,64 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -4078,67 +4076,67 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4154,9 +4152,6 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4165,7 +4160,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -4209,503 +4204,503 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="5"/>
       <c r="K6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -4714,225 +4709,225 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4942,13 +4937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DED98A-BE9A-4E9B-8FA1-11620A486F2F}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A15" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,13 +4950,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,17 +5463,6 @@
       </c>
       <c r="C47">
         <v>8115212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>96</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>8141756</v>
       </c>
     </row>
   </sheetData>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D420EE-91CF-472A-810B-8299C8ECFB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C21EA-1BCE-4702-978F-8AF3D2C718CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="151">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -486,6 +486,27 @@
   </si>
   <si>
     <t>bar-matthias-video.mp4</t>
+  </si>
+  <si>
+    <t>key_override</t>
+  </si>
+  <si>
+    <t>arr_a</t>
+  </si>
+  <si>
+    <t>arr_b</t>
+  </si>
+  <si>
+    <t>arr_c</t>
+  </si>
+  <si>
+    <t>arr_d</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>perc2-vj1-ontop.mp4</t>
   </si>
 </sst>
 </file>
@@ -594,15 +615,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,14 +645,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:R68" totalsRowShown="0">
-  <autoFilter ref="A1:R68" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:X70" totalsRowCount="1">
+  <autoFilter ref="A1:X69" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
+    <tableColumn id="25" xr3:uid="{77808034-8199-4AB6-8A62-F0B6D50904E7}" name="n"/>
+    <tableColumn id="22" xr3:uid="{CB1270B3-A7D7-4F1E-8CC9-4680CB43E652}" name="arr_a" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTA(Table2[arr_a])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{CFC3B252-E806-4C08-ABDD-EBB2F2D3857B}" name="arr_b" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTA(Table2[arr_b])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{0D96982C-48DC-4132-9141-D56C539634C3}" name="arr_c" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTA(Table2[arr_c])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{38ABB43F-3243-48AB-AD4A-832278CA9A0D}" name="arr_d" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTA(Table2[arr_d])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{77C0A867-7A88-4D39-9111-8F6544D434A1}" name="key_override"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="3" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
     <tableColumn id="8" xr3:uid="{34B2DE20-F220-4214-81DF-031315AF37A2}" name="arr_3"/>
@@ -671,7 +712,7 @@
     <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
     <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
     <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="4"/>
     <tableColumn id="25" xr3:uid="{0184330B-1672-42B1-B36F-56A5B63136A9}" name="lights"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -941,1787 +982,2044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="18" width="13.42578125" customWidth="1"/>
+    <col min="2" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>137</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>139</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
+      <c r="J2" s="1">
         <v>-17.980000000000018</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="M2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="S2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="1">
         <v>-31.383000000000038</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="1">
         <v>-14.716000000000008</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" t="s">
-        <v>105</v>
-      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="1">
         <v>-2.5590000000000259</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s">
-        <v>105</v>
-      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="1">
         <v>-37.585000000000036</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1">
         <f>-22.326</f>
         <v>-22.326000000000001</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" t="s">
         <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U7" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" t="s">
+        <v>131</v>
+      </c>
+      <c r="X7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1">
+      <c r="J8" s="1">
         <v>-9.7730000000000246</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" t="s">
         <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q8" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U8" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" t="s">
+        <v>131</v>
+      </c>
+      <c r="X8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="1">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="1">
         <v>-0.38700000000000045</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
-        <v>131</v>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U9" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" t="s">
+        <v>131</v>
+      </c>
+      <c r="W9" t="s">
+        <v>131</v>
+      </c>
+      <c r="X9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="1">
         <v>-6.1119999999999663</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1">
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="1">
         <v>-1.41700000000003</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="1">
         <v>-2.3670000000000186</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>105</v>
-      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
       <c r="M12" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S12" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="1">
         <v>-20.105999999999995</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" t="s">
-        <v>105</v>
-      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q13" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="1">
         <v>-0.14699999999999136</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s">
-        <v>105</v>
-      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
       <c r="M14" t="s">
-        <v>131</v>
-      </c>
-      <c r="N14" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" t="s">
+        <v>131</v>
+      </c>
+      <c r="V14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="1">
         <v>-5.09699999999998</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="1">
         <v>-3.7799999999999727</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="1">
         <v>-8.285000000000025</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" t="s">
-        <v>105</v>
-      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1"/>
       <c r="M17" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S17" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="1">
         <v>-2.1490000000000009</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="1">
         <v>-7.8550000000000182</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="1">
         <f>-0.358-0.1</f>
         <v>-0.45799999999999996</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" t="s">
-        <v>105</v>
-      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
       <c r="M20" t="s">
-        <v>131</v>
-      </c>
-      <c r="N20" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O20" t="s">
+        <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q20" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S20" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" t="s">
+        <v>131</v>
+      </c>
+      <c r="W20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="1">
         <f>-32-0.05</f>
         <v>-32.049999999999997</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s">
-        <v>105</v>
-      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
       <c r="M21" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O21" t="s">
+        <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S21" t="s">
+        <v>131</v>
+      </c>
+      <c r="T21" t="s">
+        <v>131</v>
+      </c>
+      <c r="V21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W21" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="1">
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="1">
         <v>168.13499999999999</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="1">
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="1">
         <v>0.51099999999996726</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="1">
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1">
+      <c r="J29" s="1">
         <v>-1.8500000000000227</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="N29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="T29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="1">
+        <v>105</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="1">
         <v>1.1340000000000146</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" t="s">
-        <v>105</v>
-      </c>
-      <c r="M30" t="s">
-        <v>131</v>
-      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1"/>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S30" t="s">
+        <v>131</v>
+      </c>
+      <c r="T30" t="s">
+        <v>131</v>
+      </c>
+      <c r="V30" t="s">
+        <v>131</v>
+      </c>
+      <c r="W30" t="s">
+        <v>131</v>
+      </c>
+      <c r="X30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="1">
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="1">
         <v>-8.6340000000000146</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" t="s">
-        <v>105</v>
-      </c>
-      <c r="M31" t="s">
-        <v>131</v>
-      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1"/>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q31" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T31" t="s">
+        <v>131</v>
+      </c>
+      <c r="V31" t="s">
+        <v>131</v>
+      </c>
+      <c r="W31" t="s">
+        <v>131</v>
+      </c>
+      <c r="X31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="1">
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="1">
         <v>-10.605000000000018</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="H32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" t="s">
-        <v>105</v>
-      </c>
-      <c r="K32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" t="s">
-        <v>105</v>
-      </c>
-      <c r="M32" t="s">
-        <v>131</v>
-      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1"/>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q32" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S32" t="s">
+        <v>131</v>
+      </c>
+      <c r="T32" t="s">
+        <v>131</v>
+      </c>
+      <c r="V32" t="s">
+        <v>131</v>
+      </c>
+      <c r="W32" t="s">
+        <v>131</v>
+      </c>
+      <c r="X32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="1">
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="1">
         <v>1.5080000000000382</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="H33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33" t="s">
-        <v>105</v>
-      </c>
-      <c r="M33" t="s">
-        <v>131</v>
-      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1"/>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q33" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S33" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" t="s">
+        <v>131</v>
+      </c>
+      <c r="V33" t="s">
+        <v>131</v>
+      </c>
+      <c r="W33" t="s">
+        <v>131</v>
+      </c>
+      <c r="X33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="1">
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" s="1">
         <v>-10.673000000000002</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="1">
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="1">
         <v>-10.932000000000016</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="H35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" t="s">
-        <v>105</v>
-      </c>
-      <c r="K35" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" t="s">
-        <v>131</v>
-      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="N35" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O35" t="s">
+        <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q35" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S35" t="s">
+        <v>131</v>
+      </c>
+      <c r="T35" t="s">
+        <v>131</v>
+      </c>
+      <c r="V35" t="s">
+        <v>131</v>
+      </c>
+      <c r="W35" t="s">
+        <v>131</v>
+      </c>
+      <c r="X35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="1">
         <v>-22.73599999999999</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36" t="s">
-        <v>105</v>
-      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1"/>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="N36" t="s">
+        <v>105</v>
       </c>
       <c r="O36" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q36" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S36" t="s">
+        <v>131</v>
+      </c>
+      <c r="U36" t="s">
+        <v>131</v>
+      </c>
+      <c r="V36" t="s">
+        <v>131</v>
+      </c>
+      <c r="W36" t="s">
+        <v>131</v>
+      </c>
+      <c r="X36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="1">
         <v>0.96500000000003183</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" t="s">
-        <v>105</v>
-      </c>
-      <c r="K37" t="s">
-        <v>105</v>
-      </c>
-      <c r="L37" t="s">
-        <v>105</v>
-      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1"/>
       <c r="M37" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="N37" t="s">
+        <v>105</v>
       </c>
       <c r="O37" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q37" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S37" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" t="s">
+        <v>131</v>
+      </c>
+      <c r="V37" t="s">
+        <v>131</v>
+      </c>
+      <c r="W37" t="s">
+        <v>131</v>
+      </c>
+      <c r="X37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="1">
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" s="1">
         <v>0.18299999999999272</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="1">
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="1">
         <v>0.5180000000000291</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L39" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" t="s">
-        <v>131</v>
-      </c>
       <c r="N39" t="s">
-        <v>131</v>
-      </c>
-      <c r="P39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S39" t="s">
+        <v>131</v>
+      </c>
+      <c r="T39" t="s">
+        <v>131</v>
+      </c>
+      <c r="V39" t="s">
+        <v>131</v>
+      </c>
+      <c r="W39" t="s">
+        <v>131</v>
+      </c>
+      <c r="X39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="1">
+        <v>105</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="1">
         <v>-12.692000000000007</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="H40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" t="s">
-        <v>105</v>
-      </c>
-      <c r="L40" t="s">
-        <v>105</v>
-      </c>
-      <c r="M40" t="s">
-        <v>131</v>
-      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1"/>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="O40" t="s">
+        <v>105</v>
       </c>
       <c r="P40" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q40" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S40" t="s">
+        <v>131</v>
+      </c>
+      <c r="T40" t="s">
+        <v>131</v>
+      </c>
+      <c r="V40" t="s">
+        <v>131</v>
+      </c>
+      <c r="W40" t="s">
+        <v>131</v>
+      </c>
+      <c r="X40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="1">
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="1">
         <v>-4.86099999999999</v>
       </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" t="s">
-        <v>105</v>
-      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1"/>
       <c r="M41" t="s">
-        <v>131</v>
-      </c>
-      <c r="N41" t="s">
-        <v>131</v>
-      </c>
-      <c r="O41" t="s">
-        <v>131</v>
-      </c>
-      <c r="P41" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="R41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T41" t="s">
+        <v>131</v>
+      </c>
+      <c r="U41" t="s">
+        <v>131</v>
+      </c>
+      <c r="V41" t="s">
+        <v>131</v>
+      </c>
+      <c r="W41" t="s">
+        <v>131</v>
+      </c>
+      <c r="X41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="1">
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" s="1">
         <v>-7.0950000000000273</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="1">
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" s="1">
         <v>1.2580000000000382</v>
       </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="1">
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="J44" s="1">
         <v>0.757000000000005</v>
       </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="M44" t="s">
-        <v>131</v>
-      </c>
-      <c r="N44" t="s">
-        <v>131</v>
-      </c>
-      <c r="O44" t="s">
-        <v>131</v>
-      </c>
-      <c r="P44" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="S44" t="s">
+        <v>131</v>
+      </c>
+      <c r="T44" t="s">
+        <v>131</v>
+      </c>
+      <c r="U44" t="s">
+        <v>131</v>
+      </c>
+      <c r="V44" t="s">
+        <v>131</v>
+      </c>
+      <c r="W44" t="s">
+        <v>131</v>
+      </c>
+      <c r="X44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="1">
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="1">
         <v>29.89</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46" s="1">
+        <v>29.89</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="1">
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="1">
         <v>17.445</v>
       </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="1">
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="1">
         <v>-71.629000000000019</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="1">
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="1">
         <v>-77.721000000000004</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J50" s="1">
         <v>-17.394999999999982</v>
       </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" t="s">
-        <v>105</v>
-      </c>
-      <c r="J49" t="s">
-        <v>105</v>
-      </c>
-      <c r="K49" t="s">
-        <v>105</v>
-      </c>
-      <c r="L49" t="s">
-        <v>105</v>
-      </c>
-      <c r="O49" t="s">
-        <v>131</v>
-      </c>
-      <c r="P49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>131</v>
-      </c>
-      <c r="R49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N50" t="s">
+        <v>105</v>
+      </c>
+      <c r="O50" t="s">
+        <v>105</v>
+      </c>
+      <c r="P50" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>105</v>
+      </c>
+      <c r="R50" t="s">
+        <v>105</v>
+      </c>
+      <c r="U50" t="s">
+        <v>131</v>
+      </c>
+      <c r="V50" t="s">
+        <v>131</v>
+      </c>
+      <c r="W50" t="s">
+        <v>131</v>
+      </c>
+      <c r="X50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="1">
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="J51" s="1">
         <v>-2.0950000000000273</v>
       </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="1">
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J52" s="1">
         <v>-8.8669999999999618</v>
       </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="1">
         <v>-152.239</v>
       </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="1">
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="1">
         <v>-8.4569999999999936</v>
       </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="1">
         <v>-13.512999999999977</v>
       </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" t="s">
-        <v>105</v>
-      </c>
-      <c r="K54" t="s">
-        <v>105</v>
-      </c>
-      <c r="L54" t="s">
-        <v>105</v>
-      </c>
-      <c r="O54" t="s">
-        <v>131</v>
-      </c>
-      <c r="P54" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>131</v>
-      </c>
-      <c r="R54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>105</v>
+      </c>
+      <c r="N55" t="s">
+        <v>105</v>
+      </c>
+      <c r="O55" t="s">
+        <v>105</v>
+      </c>
+      <c r="P55" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>105</v>
+      </c>
+      <c r="R55" t="s">
+        <v>105</v>
+      </c>
+      <c r="U55" t="s">
+        <v>131</v>
+      </c>
+      <c r="V55" t="s">
+        <v>131</v>
+      </c>
+      <c r="W55" t="s">
+        <v>131</v>
+      </c>
+      <c r="X55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="1">
+      <c r="J56" s="1">
         <v>-19.202999999999975</v>
       </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="1">
+      <c r="F57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="1">
         <v>1.6440000000000055</v>
       </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="1">
         <v>-1.3600000000000136</v>
       </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>105</v>
-      </c>
-      <c r="J57" t="s">
-        <v>105</v>
-      </c>
-      <c r="L57" t="s">
-        <v>105</v>
-      </c>
-      <c r="N57" t="s">
-        <v>131</v>
-      </c>
-      <c r="P57" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>105</v>
+      </c>
+      <c r="P58" t="s">
+        <v>105</v>
+      </c>
+      <c r="R58" t="s">
+        <v>105</v>
+      </c>
+      <c r="T58" t="s">
+        <v>131</v>
+      </c>
+      <c r="V58" t="s">
+        <v>131</v>
+      </c>
+      <c r="W58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="1">
         <v>-7.0609999999999786</v>
       </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" t="s">
-        <v>105</v>
-      </c>
-      <c r="L58" t="s">
-        <v>105</v>
-      </c>
-      <c r="N58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>105</v>
+      </c>
+      <c r="P59" t="s">
+        <v>105</v>
+      </c>
+      <c r="R59" t="s">
+        <v>105</v>
+      </c>
+      <c r="T59" t="s">
+        <v>131</v>
+      </c>
+      <c r="V59" t="s">
+        <v>131</v>
+      </c>
+      <c r="W59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+      <c r="J60" s="1">
         <v>1.4200000000000159</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" t="s">
-        <v>105</v>
-      </c>
-      <c r="L59" t="s">
-        <v>105</v>
-      </c>
-      <c r="N59" t="s">
-        <v>131</v>
-      </c>
-      <c r="P59" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>105</v>
+      </c>
+      <c r="P60" t="s">
+        <v>105</v>
+      </c>
+      <c r="R60" t="s">
+        <v>105</v>
+      </c>
+      <c r="T60" t="s">
+        <v>131</v>
+      </c>
+      <c r="V60" t="s">
+        <v>131</v>
+      </c>
+      <c r="W60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="1">
         <v>0.2470000000000141</v>
       </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>105</v>
-      </c>
-      <c r="J60" t="s">
-        <v>105</v>
-      </c>
-      <c r="L60" t="s">
-        <v>105</v>
-      </c>
-      <c r="N60" t="s">
-        <v>131</v>
-      </c>
-      <c r="P60" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>105</v>
+      </c>
+      <c r="P61" t="s">
+        <v>105</v>
+      </c>
+      <c r="R61" t="s">
+        <v>105</v>
+      </c>
+      <c r="T61" t="s">
+        <v>131</v>
+      </c>
+      <c r="V61" t="s">
+        <v>131</v>
+      </c>
+      <c r="W61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>25</v>
       </c>
-      <c r="B61" t="s">
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="1">
+      <c r="J62" s="1">
         <v>-3.8120000000000118</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="1">
+      <c r="F63" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" s="1">
         <v>-3.3129999999999882</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>117</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="1">
+      <c r="J64" s="1">
         <v>-25.810000000000002</v>
       </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" t="s">
-        <v>105</v>
-      </c>
-      <c r="J63" t="s">
-        <v>105</v>
-      </c>
-      <c r="K63" t="s">
-        <v>105</v>
-      </c>
-      <c r="L63" t="s">
-        <v>105</v>
-      </c>
-      <c r="M63" t="s">
-        <v>131</v>
-      </c>
-      <c r="O63" t="s">
-        <v>131</v>
-      </c>
-      <c r="P63" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>131</v>
-      </c>
-      <c r="R63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64" t="s">
+        <v>105</v>
+      </c>
+      <c r="P64" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>105</v>
+      </c>
+      <c r="R64" t="s">
+        <v>105</v>
+      </c>
+      <c r="S64" t="s">
+        <v>131</v>
+      </c>
+      <c r="U64" t="s">
+        <v>131</v>
+      </c>
+      <c r="V64" t="s">
+        <v>131</v>
+      </c>
+      <c r="W64" t="s">
+        <v>131</v>
+      </c>
+      <c r="X64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E65" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="1">
         <v>2.0149999999999864</v>
       </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="1">
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="J66" s="1">
         <v>12.399000000000001</v>
       </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E67" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="1">
         <v>6.8990000000000009</v>
       </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="1">
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="J68" s="1">
         <v>-1.9350000000000023</v>
       </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>105</v>
-      </c>
-      <c r="J67" t="s">
-        <v>105</v>
-      </c>
-      <c r="K67" t="s">
-        <v>105</v>
-      </c>
-      <c r="L67" t="s">
-        <v>105</v>
-      </c>
-      <c r="M67" t="s">
-        <v>131</v>
-      </c>
-      <c r="N67" t="s">
-        <v>131</v>
-      </c>
-      <c r="O67" t="s">
-        <v>131</v>
-      </c>
-      <c r="P67" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>131</v>
-      </c>
-      <c r="R67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>105</v>
+      </c>
+      <c r="P68" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>105</v>
+      </c>
+      <c r="R68" t="s">
+        <v>105</v>
+      </c>
+      <c r="S68" t="s">
+        <v>131</v>
+      </c>
+      <c r="T68" t="s">
+        <v>131</v>
+      </c>
+      <c r="U68" t="s">
+        <v>131</v>
+      </c>
+      <c r="V68" t="s">
+        <v>131</v>
+      </c>
+      <c r="W68" t="s">
+        <v>131</v>
+      </c>
+      <c r="X68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="1">
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="J69" s="1">
         <v>10.725000000000023</v>
       </c>
-      <c r="E68" s="3">
-        <v>1</v>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f>COUNTA(Table2[arr_a])</f>
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <f>COUNTA(Table2[arr_b])</f>
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <f>COUNTA(Table2[arr_c])</f>
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <f>COUNTA(Table2[arr_d])</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C21EA-1BCE-4702-978F-8AF3D2C718CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7D373-F5E3-4695-AAEF-E9F4D37AD2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="152">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>perc2-vj1-ontop.mp4</t>
+  </si>
+  <si>
+    <t>shortend</t>
   </si>
 </sst>
 </file>
@@ -615,12 +618,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -629,7 +638,7 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,28 +654,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:X70" totalsRowCount="1">
-  <autoFilter ref="A1:X69" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:Y69" totalsRowShown="0">
+  <autoFilter ref="A1:Y69" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="25" xr3:uid="{77808034-8199-4AB6-8A62-F0B6D50904E7}" name="n"/>
-    <tableColumn id="22" xr3:uid="{CB1270B3-A7D7-4F1E-8CC9-4680CB43E652}" name="arr_a" totalsRowFunction="custom">
-      <totalsRowFormula>COUNTA(Table2[arr_a])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{CFC3B252-E806-4C08-ABDD-EBB2F2D3857B}" name="arr_b" totalsRowFunction="custom">
-      <totalsRowFormula>COUNTA(Table2[arr_b])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="23" xr3:uid="{0D96982C-48DC-4132-9141-D56C539634C3}" name="arr_c" totalsRowFunction="custom">
-      <totalsRowFormula>COUNTA(Table2[arr_c])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="24" xr3:uid="{38ABB43F-3243-48AB-AD4A-832278CA9A0D}" name="arr_d" totalsRowFunction="custom">
-      <totalsRowFormula>COUNTA(Table2[arr_d])</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="22" xr3:uid="{CB1270B3-A7D7-4F1E-8CC9-4680CB43E652}" name="arr_a"/>
+    <tableColumn id="21" xr3:uid="{CFC3B252-E806-4C08-ABDD-EBB2F2D3857B}" name="arr_b"/>
+    <tableColumn id="23" xr3:uid="{0D96982C-48DC-4132-9141-D56C539634C3}" name="arr_c"/>
+    <tableColumn id="24" xr3:uid="{38ABB43F-3243-48AB-AD4A-832278CA9A0D}" name="arr_d"/>
     <tableColumn id="20" xr3:uid="{77C0A867-7A88-4D39-9111-8F6544D434A1}" name="key_override"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="4" totalsRowDxfId="0"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
     <tableColumn id="8" xr3:uid="{34B2DE20-F220-4214-81DF-031315AF37A2}" name="arr_3"/>
@@ -712,7 +714,7 @@
     <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
     <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
     <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="3"/>
     <tableColumn id="25" xr3:uid="{0184330B-1672-42B1-B36F-56A5B63136A9}" name="lights"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -982,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B46" sqref="B46"/>
+      <selection pane="topRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1003,7 @@
     <col min="12" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1032,50 +1034,53 @@
       <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1088,15 +1093,16 @@
       <c r="J2" s="1">
         <v>-17.980000000000018</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="S2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="T2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1106,13 +1112,14 @@
       <c r="J3" s="1">
         <v>-31.383000000000038</v>
       </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
+      <c r="K3" s="1">
+        <f>2*60+54</f>
+        <v>174</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" t="s">
         <v>105</v>
       </c>
@@ -1129,9 +1136,9 @@
         <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" t="s">
         <v>131</v>
       </c>
       <c r="V3" t="s">
@@ -1143,8 +1150,11 @@
       <c r="X3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1154,13 +1164,11 @@
       <c r="J4" s="1">
         <v>-14.716000000000008</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" t="s">
-        <v>105</v>
-      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" t="s">
         <v>105</v>
       </c>
@@ -1177,9 +1185,9 @@
         <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>131</v>
-      </c>
-      <c r="U4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" t="s">
         <v>131</v>
       </c>
       <c r="V4" t="s">
@@ -1191,8 +1199,11 @@
       <c r="X4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1202,13 +1213,11 @@
       <c r="J5" s="1">
         <v>-2.5590000000000259</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" t="s">
         <v>105</v>
       </c>
@@ -1225,9 +1234,9 @@
         <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
         <v>131</v>
       </c>
       <c r="V5" t="s">
@@ -1239,8 +1248,11 @@
       <c r="X5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1250,12 +1262,13 @@
       <c r="J6" s="1">
         <v>-37.585000000000036</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -1266,13 +1279,11 @@
         <f>-22.326</f>
         <v>-22.326000000000001</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" t="s">
         <v>105</v>
       </c>
@@ -1288,8 +1299,8 @@
       <c r="R7" t="s">
         <v>105</v>
       </c>
-      <c r="U7" t="s">
-        <v>131</v>
+      <c r="S7" t="s">
+        <v>105</v>
       </c>
       <c r="V7" t="s">
         <v>131</v>
@@ -1300,8 +1311,11 @@
       <c r="X7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1314,13 +1328,11 @@
       <c r="J8" s="1">
         <v>-9.7730000000000246</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
       <c r="N8" t="s">
         <v>105</v>
       </c>
@@ -1336,8 +1348,8 @@
       <c r="R8" t="s">
         <v>105</v>
       </c>
-      <c r="U8" t="s">
-        <v>131</v>
+      <c r="S8" t="s">
+        <v>105</v>
       </c>
       <c r="V8" t="s">
         <v>131</v>
@@ -1348,8 +1360,11 @@
       <c r="X8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1362,17 +1377,18 @@
       <c r="J9" s="1">
         <v>-0.38700000000000045</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" t="s">
-        <v>105</v>
-      </c>
+      <c r="K9" s="1">
+        <f>2*60+56</f>
+        <v>176</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" t="s">
         <v>105</v>
       </c>
       <c r="Q9" t="s">
@@ -1381,8 +1397,8 @@
       <c r="R9" t="s">
         <v>105</v>
       </c>
-      <c r="U9" t="s">
-        <v>131</v>
+      <c r="S9" t="s">
+        <v>105</v>
       </c>
       <c r="V9" t="s">
         <v>131</v>
@@ -1393,8 +1409,11 @@
       <c r="X9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1404,15 +1423,16 @@
       <c r="J10" s="1">
         <v>-6.1119999999999663</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1422,12 +1442,13 @@
       <c r="J11" s="1">
         <v>-1.41700000000003</v>
       </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1437,14 +1458,12 @@
       <c r="J12" s="1">
         <v>-2.3670000000000186</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
         <v>105</v>
       </c>
       <c r="P12" t="s">
@@ -1457,12 +1476,12 @@
         <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T12" t="s">
         <v>131</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U12" t="s">
         <v>131</v>
       </c>
       <c r="W12" t="s">
@@ -1471,8 +1490,11 @@
       <c r="X12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1482,14 +1504,12 @@
       <c r="J13" s="1">
         <v>-20.105999999999995</v>
       </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
         <v>105</v>
       </c>
       <c r="P13" t="s">
@@ -1502,12 +1522,12 @@
         <v>105</v>
       </c>
       <c r="S13" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
         <v>131</v>
       </c>
-      <c r="V13" t="s">
+      <c r="U13" t="s">
         <v>131</v>
       </c>
       <c r="W13" t="s">
@@ -1516,8 +1536,11 @@
       <c r="X13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1527,14 +1550,14 @@
       <c r="J14" s="1">
         <v>-0.14699999999999136</v>
       </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="K14" s="1">
+        <v>177</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="s">
         <v>105</v>
       </c>
       <c r="P14" t="s">
@@ -1547,12 +1570,12 @@
         <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T14" t="s">
         <v>131</v>
       </c>
-      <c r="V14" t="s">
+      <c r="U14" t="s">
         <v>131</v>
       </c>
       <c r="W14" t="s">
@@ -1561,8 +1584,11 @@
       <c r="X14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1572,12 +1598,13 @@
       <c r="J15" s="1">
         <v>-5.09699999999998</v>
       </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1587,12 +1614,13 @@
       <c r="J16" s="1">
         <v>-3.7799999999999727</v>
       </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1602,14 +1630,12 @@
       <c r="J17" s="1">
         <v>-8.285000000000025</v>
       </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
         <v>105</v>
       </c>
       <c r="P17" t="s">
@@ -1622,12 +1648,12 @@
         <v>105</v>
       </c>
       <c r="S17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T17" t="s">
         <v>131</v>
       </c>
-      <c r="V17" t="s">
+      <c r="U17" t="s">
         <v>131</v>
       </c>
       <c r="W17" t="s">
@@ -1636,8 +1662,11 @@
       <c r="X17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1647,12 +1676,13 @@
       <c r="J18" s="1">
         <v>-2.1490000000000009</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1662,12 +1692,13 @@
       <c r="J19" s="1">
         <v>-7.8550000000000182</v>
       </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1678,14 +1709,12 @@
         <f>-0.358-0.1</f>
         <v>-0.45799999999999996</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" t="s">
         <v>105</v>
       </c>
       <c r="P20" t="s">
@@ -1698,12 +1727,12 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T20" t="s">
         <v>131</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U20" t="s">
         <v>131</v>
       </c>
       <c r="W20" t="s">
@@ -1712,8 +1741,11 @@
       <c r="X20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1724,14 +1756,12 @@
         <f>-32-0.05</f>
         <v>-32.049999999999997</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" t="s">
-        <v>105</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" t="s">
         <v>105</v>
       </c>
       <c r="P21" t="s">
@@ -1744,12 +1774,12 @@
         <v>105</v>
       </c>
       <c r="S21" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T21" t="s">
         <v>131</v>
       </c>
-      <c r="V21" t="s">
+      <c r="U21" t="s">
         <v>131</v>
       </c>
       <c r="W21" t="s">
@@ -1758,8 +1788,11 @@
       <c r="X21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1769,12 +1802,13 @@
       <c r="J22" s="1">
         <v>168.13499999999999</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1784,12 +1818,13 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1"/>
+      <c r="L23" s="3">
         <v>3</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1799,12 +1834,13 @@
       <c r="J24" s="1">
         <v>0.51099999999996726</v>
       </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1814,12 +1850,13 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1829,42 +1866,39 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1877,15 +1911,16 @@
       <c r="J29" s="1">
         <v>-1.8500000000000227</v>
       </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="T29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="U29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1898,13 +1933,11 @@
       <c r="J30" s="1">
         <v>1.1340000000000146</v>
       </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="N30" t="s">
-        <v>105</v>
-      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="O30" t="s">
         <v>105</v>
       </c>
@@ -1918,12 +1951,12 @@
         <v>105</v>
       </c>
       <c r="S30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T30" t="s">
         <v>131</v>
       </c>
-      <c r="V30" t="s">
+      <c r="U30" t="s">
         <v>131</v>
       </c>
       <c r="W30" t="s">
@@ -1932,8 +1965,11 @@
       <c r="X30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -1943,13 +1979,11 @@
       <c r="J31" s="1">
         <v>-8.6340000000000146</v>
       </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="N31" t="s">
-        <v>105</v>
-      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1"/>
       <c r="O31" t="s">
         <v>105</v>
       </c>
@@ -1963,12 +1997,12 @@
         <v>105</v>
       </c>
       <c r="S31" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T31" t="s">
         <v>131</v>
       </c>
-      <c r="V31" t="s">
+      <c r="U31" t="s">
         <v>131</v>
       </c>
       <c r="W31" t="s">
@@ -1977,8 +2011,11 @@
       <c r="X31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -1988,13 +2025,11 @@
       <c r="J32" s="1">
         <v>-10.605000000000018</v>
       </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="N32" t="s">
-        <v>105</v>
-      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="O32" t="s">
         <v>105</v>
       </c>
@@ -2008,12 +2043,12 @@
         <v>105</v>
       </c>
       <c r="S32" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T32" t="s">
         <v>131</v>
       </c>
-      <c r="V32" t="s">
+      <c r="U32" t="s">
         <v>131</v>
       </c>
       <c r="W32" t="s">
@@ -2022,8 +2057,11 @@
       <c r="X32" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2033,13 +2071,11 @@
       <c r="J33" s="1">
         <v>1.5080000000000382</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="N33" t="s">
-        <v>105</v>
-      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
       <c r="O33" t="s">
         <v>105</v>
       </c>
@@ -2053,12 +2089,12 @@
         <v>105</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T33" t="s">
         <v>131</v>
       </c>
-      <c r="V33" t="s">
+      <c r="U33" t="s">
         <v>131</v>
       </c>
       <c r="W33" t="s">
@@ -2067,8 +2103,11 @@
       <c r="X33" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2078,12 +2117,13 @@
       <c r="J34" s="1">
         <v>-10.673000000000002</v>
       </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2093,13 +2133,13 @@
       <c r="J35" s="1">
         <v>-10.932000000000016</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="N35" t="s">
-        <v>105</v>
-      </c>
+      <c r="K35" s="1">
+        <v>180</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1"/>
       <c r="O35" t="s">
         <v>105</v>
       </c>
@@ -2113,12 +2153,12 @@
         <v>105</v>
       </c>
       <c r="S35" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T35" t="s">
         <v>131</v>
       </c>
-      <c r="V35" t="s">
+      <c r="U35" t="s">
         <v>131</v>
       </c>
       <c r="W35" t="s">
@@ -2127,8 +2167,11 @@
       <c r="X35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2141,13 +2184,11 @@
       <c r="J36" s="1">
         <v>-22.73599999999999</v>
       </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" t="s">
-        <v>105</v>
-      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1"/>
       <c r="N36" t="s">
         <v>105</v>
       </c>
@@ -2164,9 +2205,9 @@
         <v>105</v>
       </c>
       <c r="S36" t="s">
-        <v>131</v>
-      </c>
-      <c r="U36" t="s">
+        <v>105</v>
+      </c>
+      <c r="T36" t="s">
         <v>131</v>
       </c>
       <c r="V36" t="s">
@@ -2178,8 +2219,11 @@
       <c r="X36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2189,13 +2233,11 @@
       <c r="J37" s="1">
         <v>0.96500000000003183</v>
       </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" t="s">
-        <v>105</v>
-      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" t="s">
         <v>105</v>
       </c>
@@ -2212,9 +2254,9 @@
         <v>105</v>
       </c>
       <c r="S37" t="s">
-        <v>131</v>
-      </c>
-      <c r="U37" t="s">
+        <v>105</v>
+      </c>
+      <c r="T37" t="s">
         <v>131</v>
       </c>
       <c r="V37" t="s">
@@ -2226,8 +2268,11 @@
       <c r="X37" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2237,12 +2282,13 @@
       <c r="J38" s="1">
         <v>0.18299999999999272</v>
       </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2252,28 +2298,26 @@
       <c r="J39" s="1">
         <v>0.5180000000000291</v>
       </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N39" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="O39" t="s">
         <v>105</v>
       </c>
       <c r="R39" t="s">
         <v>105</v>
       </c>
       <c r="S39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T39" t="s">
         <v>131</v>
       </c>
-      <c r="V39" t="s">
+      <c r="U39" t="s">
         <v>131</v>
       </c>
       <c r="W39" t="s">
@@ -2282,8 +2326,11 @@
       <c r="X39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2296,13 +2343,14 @@
       <c r="J40" s="1">
         <v>-12.692000000000007</v>
       </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="N40" t="s">
-        <v>105</v>
-      </c>
+      <c r="K40" s="1">
+        <f>2*60+48</f>
+        <v>168</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1"/>
       <c r="O40" t="s">
         <v>105</v>
       </c>
@@ -2316,12 +2364,12 @@
         <v>105</v>
       </c>
       <c r="S40" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T40" t="s">
         <v>131</v>
       </c>
-      <c r="V40" t="s">
+      <c r="U40" t="s">
         <v>131</v>
       </c>
       <c r="W40" t="s">
@@ -2330,8 +2378,11 @@
       <c r="X40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2341,18 +2392,16 @@
       <c r="J41" s="1">
         <v>-4.86099999999999</v>
       </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" t="s">
-        <v>105</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="K41" s="1"/>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" t="s">
         <v>105</v>
       </c>
       <c r="S41" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T41" t="s">
         <v>131</v>
@@ -2369,8 +2418,11 @@
       <c r="X41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2380,12 +2432,13 @@
       <c r="J42" s="1">
         <v>-7.0950000000000273</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2395,12 +2448,13 @@
       <c r="J43" s="1">
         <v>1.2580000000000382</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2410,13 +2464,11 @@
       <c r="J44" s="1">
         <v>0.757000000000005</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="S44" t="s">
-        <v>131</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1"/>
       <c r="T44" t="s">
         <v>131</v>
       </c>
@@ -2432,8 +2484,11 @@
       <c r="X44" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -2443,12 +2498,13 @@
       <c r="J45" s="1">
         <v>29.89</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -2458,12 +2514,13 @@
       <c r="J46" s="1">
         <v>29.89</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -2473,12 +2530,13 @@
       <c r="J47" s="1">
         <v>17.445</v>
       </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2488,12 +2546,13 @@
       <c r="J48" s="1">
         <v>-71.629000000000019</v>
       </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2503,12 +2562,13 @@
       <c r="J49" s="1">
         <v>-77.721000000000004</v>
       </c>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2518,13 +2578,14 @@
       <c r="J50" s="1">
         <v>-17.394999999999982</v>
       </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="M50" t="s">
-        <v>105</v>
-      </c>
+      <c r="K50" s="1">
+        <f>2*60+55</f>
+        <v>175</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1"/>
       <c r="N50" t="s">
         <v>105</v>
       </c>
@@ -2540,8 +2601,8 @@
       <c r="R50" t="s">
         <v>105</v>
       </c>
-      <c r="U50" t="s">
-        <v>131</v>
+      <c r="S50" t="s">
+        <v>105</v>
       </c>
       <c r="V50" t="s">
         <v>131</v>
@@ -2552,8 +2613,11 @@
       <c r="X50" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2563,12 +2627,13 @@
       <c r="J51" s="1">
         <v>-2.0950000000000273</v>
       </c>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K51" s="1"/>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2578,12 +2643,13 @@
       <c r="J52" s="1">
         <v>-8.8669999999999618</v>
       </c>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2593,11 +2659,12 @@
       <c r="J53" s="1">
         <v>-152.239</v>
       </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -2607,11 +2674,12 @@
       <c r="J54" s="1">
         <v>-8.4569999999999936</v>
       </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2621,11 +2689,12 @@
       <c r="J55" s="1">
         <v>-13.512999999999977</v>
       </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>105</v>
+      <c r="K55" s="1">
+        <f>2*60+59</f>
+        <v>179</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1</v>
       </c>
       <c r="N55" t="s">
         <v>105</v>
@@ -2642,8 +2711,8 @@
       <c r="R55" t="s">
         <v>105</v>
       </c>
-      <c r="U55" t="s">
-        <v>131</v>
+      <c r="S55" t="s">
+        <v>105</v>
       </c>
       <c r="V55" t="s">
         <v>131</v>
@@ -2654,8 +2723,11 @@
       <c r="X55" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -2668,14 +2740,15 @@
       <c r="J56" s="1">
         <v>-19.202999999999975</v>
       </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2685,14 +2758,15 @@
       <c r="J57" s="1">
         <v>1.6440000000000055</v>
       </c>
-      <c r="K57" s="3">
-        <v>1</v>
-      </c>
-      <c r="P57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2702,29 +2776,30 @@
       <c r="J58" s="1">
         <v>-1.3600000000000136</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>105</v>
+      <c r="K58" s="1"/>
+      <c r="L58" s="3">
+        <v>1</v>
       </c>
       <c r="P58" t="s">
         <v>105</v>
       </c>
-      <c r="R58" t="s">
-        <v>105</v>
-      </c>
-      <c r="T58" t="s">
-        <v>131</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="Q58" t="s">
+        <v>105</v>
+      </c>
+      <c r="S58" t="s">
+        <v>105</v>
+      </c>
+      <c r="U58" t="s">
         <v>131</v>
       </c>
       <c r="W58" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2734,29 +2809,30 @@
       <c r="J59" s="1">
         <v>-7.0609999999999786</v>
       </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>105</v>
+      <c r="K59" s="1"/>
+      <c r="L59" s="3">
+        <v>1</v>
       </c>
       <c r="P59" t="s">
         <v>105</v>
       </c>
-      <c r="R59" t="s">
-        <v>105</v>
-      </c>
-      <c r="T59" t="s">
-        <v>131</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="Q59" t="s">
+        <v>105</v>
+      </c>
+      <c r="S59" t="s">
+        <v>105</v>
+      </c>
+      <c r="U59" t="s">
         <v>131</v>
       </c>
       <c r="W59" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -2766,29 +2842,30 @@
       <c r="J60" s="1">
         <v>1.4200000000000159</v>
       </c>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>105</v>
+      <c r="K60" s="1"/>
+      <c r="L60" s="3">
+        <v>1</v>
       </c>
       <c r="P60" t="s">
         <v>105</v>
       </c>
-      <c r="R60" t="s">
-        <v>105</v>
-      </c>
-      <c r="T60" t="s">
-        <v>131</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="Q60" t="s">
+        <v>105</v>
+      </c>
+      <c r="S60" t="s">
+        <v>105</v>
+      </c>
+      <c r="U60" t="s">
         <v>131</v>
       </c>
       <c r="W60" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2798,29 +2875,30 @@
       <c r="J61" s="1">
         <v>0.2470000000000141</v>
       </c>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>105</v>
+      <c r="K61" s="1"/>
+      <c r="L61" s="3">
+        <v>1</v>
       </c>
       <c r="P61" t="s">
         <v>105</v>
       </c>
-      <c r="R61" t="s">
-        <v>105</v>
-      </c>
-      <c r="T61" t="s">
-        <v>131</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="Q61" t="s">
+        <v>105</v>
+      </c>
+      <c r="S61" t="s">
+        <v>105</v>
+      </c>
+      <c r="U61" t="s">
         <v>131</v>
       </c>
       <c r="W61" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -2833,11 +2911,12 @@
       <c r="J62" s="1">
         <v>-3.8120000000000118</v>
       </c>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2847,14 +2926,15 @@
       <c r="J63" s="1">
         <v>-3.3129999999999882</v>
       </c>
-      <c r="K63" s="3">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -2867,13 +2947,13 @@
       <c r="J64" s="1">
         <v>-25.810000000000002</v>
       </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="M64" t="s">
-        <v>105</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="K64" s="1">
+        <v>179.5</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
         <v>105</v>
       </c>
       <c r="P64" t="s">
@@ -2886,9 +2966,9 @@
         <v>105</v>
       </c>
       <c r="S64" t="s">
-        <v>131</v>
-      </c>
-      <c r="U64" t="s">
+        <v>105</v>
+      </c>
+      <c r="T64" t="s">
         <v>131</v>
       </c>
       <c r="V64" t="s">
@@ -2900,8 +2980,11 @@
       <c r="X64" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -2911,14 +2994,15 @@
       <c r="J65" s="1">
         <v>2.0149999999999864</v>
       </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -2928,11 +3012,12 @@
       <c r="J66" s="1">
         <v>12.399000000000001</v>
       </c>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -2942,11 +3027,12 @@
       <c r="J67" s="1">
         <v>6.8990000000000009</v>
       </c>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -2956,11 +3042,9 @@
       <c r="J68" s="1">
         <v>-1.9350000000000023</v>
       </c>
-      <c r="K68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>105</v>
+      <c r="K68" s="1"/>
+      <c r="L68" s="3">
+        <v>1</v>
       </c>
       <c r="P68" t="s">
         <v>105</v>
@@ -2972,7 +3056,7 @@
         <v>105</v>
       </c>
       <c r="S68" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T68" t="s">
         <v>131</v>
@@ -2989,8 +3073,11 @@
       <c r="X68" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -3000,26 +3087,9 @@
       <c r="J69" s="1">
         <v>10.725000000000023</v>
       </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C70">
-        <f>COUNTA(Table2[arr_a])</f>
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <f>COUNTA(Table2[arr_b])</f>
-        <v>10</v>
-      </c>
-      <c r="E70">
-        <f>COUNTA(Table2[arr_c])</f>
-        <v>15</v>
-      </c>
-      <c r="F70">
-        <f>COUNTA(Table2[arr_d])</f>
-        <v>13</v>
+      <c r="K69" s="1"/>
+      <c r="L69" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3036,7 +3106,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7D373-F5E3-4695-AAEF-E9F4D37AD2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C9C70-D302-4E49-85BC-7DAF67653972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
@@ -623,6 +623,15 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
@@ -630,15 +639,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,9 +666,9 @@
     <tableColumn id="20" xr3:uid="{77C0A867-7A88-4D39-9111-8F6544D434A1}" name="key_override"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="0" totalsRowDxfId="1"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
     <tableColumn id="8" xr3:uid="{34B2DE20-F220-4214-81DF-031315AF37A2}" name="arr_3"/>
@@ -714,7 +714,7 @@
     <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
     <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
     <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="6"/>
     <tableColumn id="25" xr3:uid="{0184330B-1672-42B1-B36F-56A5B63136A9}" name="lights"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -986,9 +986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H77" sqref="H77"/>
+      <selection pane="topRight" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1164,9 @@
       <c r="J4" s="1">
         <v>-14.716000000000008</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>176.5</v>
+      </c>
       <c r="L4" s="3">
         <v>1</v>
       </c>
@@ -1213,7 +1215,9 @@
       <c r="J5" s="1">
         <v>-2.5590000000000259</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>175.2</v>
+      </c>
       <c r="L5" s="3">
         <v>1</v>
       </c>
@@ -2344,8 +2348,7 @@
         <v>-12.692000000000007</v>
       </c>
       <c r="K40" s="1">
-        <f>2*60+48</f>
-        <v>168</v>
+        <v>169.38942360999999</v>
       </c>
       <c r="L40" s="3">
         <v>1</v>
@@ -2392,7 +2395,9 @@
       <c r="J41" s="1">
         <v>-4.86099999999999</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1">
+        <v>175.8</v>
+      </c>
       <c r="L41" s="3">
         <v>1</v>
       </c>
@@ -2579,8 +2584,7 @@
         <v>-17.394999999999982</v>
       </c>
       <c r="K50" s="1">
-        <f>2*60+55</f>
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L50" s="3">
         <v>1</v>
@@ -2690,8 +2694,7 @@
         <v>-13.512999999999977</v>
       </c>
       <c r="K55" s="1">
-        <f>2*60+59</f>
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
@@ -2776,7 +2779,9 @@
       <c r="J58" s="1">
         <v>-1.3600000000000136</v>
       </c>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1">
+        <v>174.1</v>
+      </c>
       <c r="L58" s="3">
         <v>1</v>
       </c>
@@ -3106,7 +3111,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C9C70-D302-4E49-85BC-7DAF67653972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC049484-D615-423F-BF5B-4E8EA27EF15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="151">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>bar-matthias-video.mp4</t>
-  </si>
-  <si>
-    <t>key_override</t>
   </si>
   <si>
     <t>arr_a</t>
@@ -623,13 +620,13 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -654,21 +651,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:Y69" totalsRowShown="0">
-  <autoFilter ref="A1:Y69" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:X69" totalsRowShown="0">
+  <autoFilter ref="A1:X69" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="25" xr3:uid="{77808034-8199-4AB6-8A62-F0B6D50904E7}" name="n"/>
     <tableColumn id="22" xr3:uid="{CB1270B3-A7D7-4F1E-8CC9-4680CB43E652}" name="arr_a"/>
     <tableColumn id="21" xr3:uid="{CFC3B252-E806-4C08-ABDD-EBB2F2D3857B}" name="arr_b"/>
     <tableColumn id="23" xr3:uid="{0D96982C-48DC-4132-9141-D56C539634C3}" name="arr_c"/>
     <tableColumn id="24" xr3:uid="{38ABB43F-3243-48AB-AD4A-832278CA9A0D}" name="arr_d"/>
-    <tableColumn id="20" xr3:uid="{77C0A867-7A88-4D39-9111-8F6544D434A1}" name="key_override"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
     <tableColumn id="8" xr3:uid="{34B2DE20-F220-4214-81DF-031315AF37A2}" name="arr_3"/>
@@ -984,142 +980,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K58" sqref="K58"/>
+      <selection pane="topRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="24" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
       <c r="G1" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1">
         <v>-17.980000000000018</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="T2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="S2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" t="s">
-        <v>105</v>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-31.383000000000038</v>
       </c>
       <c r="J3" s="1">
-        <v>-31.383000000000038</v>
-      </c>
-      <c r="K3" s="1">
         <f>2*60+54</f>
         <v>174</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
       <c r="N3" t="s">
         <v>105</v>
       </c>
@@ -1136,9 +1131,9 @@
         <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" t="s">
         <v>131</v>
       </c>
       <c r="V3" t="s">
@@ -1150,27 +1145,27 @@
       <c r="X3" t="s">
         <v>131</v>
       </c>
-      <c r="Y3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
-        <v>105</v>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-14.716000000000008</v>
       </c>
       <c r="J4" s="1">
-        <v>-14.716000000000008</v>
-      </c>
-      <c r="K4" s="1">
         <v>176.5</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
       <c r="N4" t="s">
         <v>105</v>
       </c>
@@ -1187,9 +1182,9 @@
         <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U4" t="s">
         <v>131</v>
       </c>
       <c r="V4" t="s">
@@ -1201,27 +1196,27 @@
       <c r="X4" t="s">
         <v>131</v>
       </c>
-      <c r="Y4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
-        <v>105</v>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-2.5590000000000259</v>
       </c>
       <c r="J5" s="1">
-        <v>-2.5590000000000259</v>
-      </c>
-      <c r="K5" s="1">
         <v>175.2</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
       <c r="N5" t="s">
         <v>105</v>
       </c>
@@ -1238,9 +1233,9 @@
         <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
-      </c>
-      <c r="T5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" t="s">
         <v>131</v>
       </c>
       <c r="V5" t="s">
@@ -1252,42 +1247,42 @@
       <c r="X5" t="s">
         <v>131</v>
       </c>
-      <c r="Y5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1">
+        <v>148</v>
+      </c>
+      <c r="I6" s="1">
         <v>-37.585000000000036</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
       <c r="E7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
         <f>-22.326</f>
         <v>-22.326000000000001</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
       <c r="N7" t="s">
         <v>105</v>
       </c>
@@ -1303,8 +1298,8 @@
       <c r="R7" t="s">
         <v>105</v>
       </c>
-      <c r="S7" t="s">
-        <v>105</v>
+      <c r="U7" t="s">
+        <v>131</v>
       </c>
       <c r="V7" t="s">
         <v>131</v>
@@ -1315,28 +1310,28 @@
       <c r="X7" t="s">
         <v>131</v>
       </c>
-      <c r="Y7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1">
         <v>-9.7730000000000246</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" t="s">
         <v>105</v>
       </c>
@@ -1352,8 +1347,8 @@
       <c r="R8" t="s">
         <v>105</v>
       </c>
-      <c r="S8" t="s">
-        <v>105</v>
+      <c r="U8" t="s">
+        <v>131</v>
       </c>
       <c r="V8" t="s">
         <v>131</v>
@@ -1364,35 +1359,32 @@
       <c r="X8" t="s">
         <v>131</v>
       </c>
-      <c r="Y8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
+        <v>148</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.38700000000000045</v>
       </c>
       <c r="J9" s="1">
-        <v>-0.38700000000000045</v>
-      </c>
-      <c r="K9" s="1">
         <f>2*60+56</f>
         <v>176</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>105</v>
       </c>
       <c r="Q9" t="s">
@@ -1401,8 +1393,8 @@
       <c r="R9" t="s">
         <v>105</v>
       </c>
-      <c r="S9" t="s">
-        <v>105</v>
+      <c r="U9" t="s">
+        <v>131</v>
       </c>
       <c r="V9" t="s">
         <v>131</v>
@@ -1413,61 +1405,61 @@
       <c r="X9" t="s">
         <v>131</v>
       </c>
-      <c r="Y9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
         <v>-6.1119999999999663</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="P10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" s="1">
+        <v>148</v>
+      </c>
+      <c r="I11" s="1">
         <v>-1.41700000000003</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1">
         <v>-2.3670000000000186</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
         <v>105</v>
       </c>
       <c r="P12" t="s">
@@ -1480,12 +1472,12 @@
         <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T12" t="s">
         <v>131</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>131</v>
       </c>
       <c r="W12" t="s">
@@ -1494,26 +1486,26 @@
       <c r="X12" t="s">
         <v>131</v>
       </c>
-      <c r="Y12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="1">
         <v>-20.105999999999995</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
         <v>105</v>
       </c>
       <c r="P13" t="s">
@@ -1526,12 +1518,12 @@
         <v>105</v>
       </c>
       <c r="S13" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T13" t="s">
         <v>131</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>131</v>
       </c>
       <c r="W13" t="s">
@@ -1540,28 +1532,28 @@
       <c r="X13" t="s">
         <v>131</v>
       </c>
-      <c r="Y13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="D14" t="s">
-        <v>105</v>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.14699999999999136</v>
       </c>
       <c r="J14" s="1">
-        <v>-0.14699999999999136</v>
-      </c>
-      <c r="K14" s="1">
         <v>177</v>
       </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" t="s">
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" t="s">
         <v>105</v>
       </c>
       <c r="P14" t="s">
@@ -1574,12 +1566,12 @@
         <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T14" t="s">
         <v>131</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>131</v>
       </c>
       <c r="W14" t="s">
@@ -1588,58 +1580,58 @@
       <c r="X14" t="s">
         <v>131</v>
       </c>
-      <c r="Y14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="1">
+        <v>148</v>
+      </c>
+      <c r="I15" s="1">
         <v>-5.09699999999998</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="1">
         <v>-3.7799999999999727</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="1">
         <v>-8.285000000000025</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
         <v>105</v>
       </c>
       <c r="P17" t="s">
@@ -1652,12 +1644,12 @@
         <v>105</v>
       </c>
       <c r="S17" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T17" t="s">
         <v>131</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>131</v>
       </c>
       <c r="W17" t="s">
@@ -1666,59 +1658,59 @@
       <c r="X17" t="s">
         <v>131</v>
       </c>
-      <c r="Y17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="1">
+        <v>148</v>
+      </c>
+      <c r="I18" s="1">
         <v>-2.1490000000000009</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="1">
+        <v>148</v>
+      </c>
+      <c r="I19" s="1">
         <v>-7.8550000000000182</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="1">
         <f>-0.358-0.1</f>
         <v>-0.45799999999999996</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" t="s">
         <v>105</v>
       </c>
       <c r="P20" t="s">
@@ -1731,12 +1723,12 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T20" t="s">
         <v>131</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>131</v>
       </c>
       <c r="W20" t="s">
@@ -1745,27 +1737,27 @@
       <c r="X20" t="s">
         <v>131</v>
       </c>
-      <c r="Y20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="1">
         <f>-32-0.05</f>
         <v>-32.049999999999997</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" t="s">
         <v>105</v>
       </c>
       <c r="P21" t="s">
@@ -1778,12 +1770,12 @@
         <v>105</v>
       </c>
       <c r="S21" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T21" t="s">
         <v>131</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>131</v>
       </c>
       <c r="W21" t="s">
@@ -1792,156 +1784,162 @@
       <c r="X21" t="s">
         <v>131</v>
       </c>
-      <c r="Y21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22" s="1">
+        <v>148</v>
+      </c>
+      <c r="I22" s="1">
         <v>168.13499999999999</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="3">
         <v>3</v>
       </c>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="1">
         <v>0.51099999999996726</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25" s="1">
+        <v>148</v>
+      </c>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="1">
+        <v>148</v>
+      </c>
+      <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="1">
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="1">
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="1">
+      <c r="I29" s="1">
         <v>-1.8500000000000227</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="U29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="T29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="I30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="1">
         <v>1.1340000000000146</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="N30" t="s">
+        <v>105</v>
+      </c>
       <c r="O30" t="s">
         <v>105</v>
       </c>
@@ -1955,12 +1953,12 @@
         <v>105</v>
       </c>
       <c r="S30" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T30" t="s">
         <v>131</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>131</v>
       </c>
       <c r="W30" t="s">
@@ -1969,25 +1967,25 @@
       <c r="X30" t="s">
         <v>131</v>
       </c>
-      <c r="Y30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="1">
+      <c r="I31" s="1">
         <v>-8.6340000000000146</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="N31" t="s">
+        <v>105</v>
+      </c>
       <c r="O31" t="s">
         <v>105</v>
       </c>
@@ -2001,12 +1999,12 @@
         <v>105</v>
       </c>
       <c r="S31" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T31" t="s">
         <v>131</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>131</v>
       </c>
       <c r="W31" t="s">
@@ -2015,25 +2013,25 @@
       <c r="X31" t="s">
         <v>131</v>
       </c>
-      <c r="Y31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
       <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="1">
+      <c r="I32" s="1">
         <v>-10.605000000000018</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="N32" t="s">
+        <v>105</v>
+      </c>
       <c r="O32" t="s">
         <v>105</v>
       </c>
@@ -2047,12 +2045,12 @@
         <v>105</v>
       </c>
       <c r="S32" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T32" t="s">
         <v>131</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>131</v>
       </c>
       <c r="W32" t="s">
@@ -2061,25 +2059,25 @@
       <c r="X32" t="s">
         <v>131</v>
       </c>
-      <c r="Y32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
       </c>
-      <c r="J33" s="1">
+      <c r="I33" s="1">
         <v>1.5080000000000382</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
       <c r="O33" t="s">
         <v>105</v>
       </c>
@@ -2093,12 +2091,12 @@
         <v>105</v>
       </c>
       <c r="S33" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T33" t="s">
         <v>131</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>131</v>
       </c>
       <c r="W33" t="s">
@@ -2107,43 +2105,43 @@
       <c r="X33" t="s">
         <v>131</v>
       </c>
-      <c r="Y33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="J34" s="1">
+        <v>148</v>
+      </c>
+      <c r="I34" s="1">
         <v>-10.673000000000002</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>105</v>
       </c>
+      <c r="I35" s="1">
+        <v>-10.932000000000016</v>
+      </c>
       <c r="J35" s="1">
-        <v>-10.932000000000016</v>
-      </c>
-      <c r="K35" s="1">
         <v>180</v>
       </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="N35" t="s">
+        <v>105</v>
+      </c>
       <c r="O35" t="s">
         <v>105</v>
       </c>
@@ -2157,12 +2155,12 @@
         <v>105</v>
       </c>
       <c r="S35" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T35" t="s">
         <v>131</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>131</v>
       </c>
       <c r="W35" t="s">
@@ -2171,28 +2169,28 @@
       <c r="X35" t="s">
         <v>131</v>
       </c>
-      <c r="Y35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
       </c>
-      <c r="I36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="1">
         <v>-22.73599999999999</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" t="s">
+        <v>105</v>
+      </c>
       <c r="N36" t="s">
         <v>105</v>
       </c>
@@ -2209,9 +2207,9 @@
         <v>105</v>
       </c>
       <c r="S36" t="s">
-        <v>105</v>
-      </c>
-      <c r="T36" t="s">
+        <v>131</v>
+      </c>
+      <c r="U36" t="s">
         <v>131</v>
       </c>
       <c r="V36" t="s">
@@ -2223,25 +2221,25 @@
       <c r="X36" t="s">
         <v>131</v>
       </c>
-      <c r="Y36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="1">
+      <c r="I37" s="1">
         <v>0.96500000000003183</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" t="s">
+        <v>105</v>
+      </c>
       <c r="N37" t="s">
         <v>105</v>
       </c>
@@ -2258,9 +2256,9 @@
         <v>105</v>
       </c>
       <c r="S37" t="s">
-        <v>105</v>
-      </c>
-      <c r="T37" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" t="s">
         <v>131</v>
       </c>
       <c r="V37" t="s">
@@ -2272,56 +2270,56 @@
       <c r="X37" t="s">
         <v>131</v>
       </c>
-      <c r="Y37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J38" s="1">
+        <v>148</v>
+      </c>
+      <c r="I38" s="1">
         <v>0.18299999999999272</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="F39" t="s">
         <v>105</v>
       </c>
-      <c r="J39" s="1">
+      <c r="I39" s="1">
         <v>0.5180000000000291</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="J39" s="1"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q39" t="s">
         <v>105</v>
       </c>
       <c r="R39" t="s">
         <v>105</v>
       </c>
       <c r="S39" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T39" t="s">
         <v>131</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>131</v>
       </c>
       <c r="W39" t="s">
@@ -2330,30 +2328,30 @@
       <c r="X39" t="s">
         <v>131</v>
       </c>
-      <c r="Y39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
       </c>
-      <c r="I40" t="s">
-        <v>31</v>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-12.692000000000007</v>
       </c>
       <c r="J40" s="1">
-        <v>-12.692000000000007</v>
-      </c>
-      <c r="K40" s="1">
         <v>169.38942360999999</v>
       </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="1"/>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="N40" t="s">
+        <v>105</v>
+      </c>
       <c r="O40" t="s">
         <v>105</v>
       </c>
@@ -2367,12 +2365,12 @@
         <v>105</v>
       </c>
       <c r="S40" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T40" t="s">
         <v>131</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>131</v>
       </c>
       <c r="W40" t="s">
@@ -2381,32 +2379,32 @@
       <c r="X40" t="s">
         <v>131</v>
       </c>
-      <c r="Y40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
         <v>105</v>
       </c>
+      <c r="I41" s="1">
+        <v>-4.86099999999999</v>
+      </c>
       <c r="J41" s="1">
-        <v>-4.86099999999999</v>
-      </c>
-      <c r="K41" s="1">
         <v>175.8</v>
       </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" t="s">
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" t="s">
+        <v>105</v>
+      </c>
+      <c r="R41" t="s">
         <v>105</v>
       </c>
       <c r="S41" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T41" t="s">
         <v>131</v>
@@ -2423,57 +2421,57 @@
       <c r="X41" t="s">
         <v>131</v>
       </c>
-      <c r="Y41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="1">
+        <v>148</v>
+      </c>
+      <c r="I42" s="1">
         <v>-7.0950000000000273</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
         <v>105</v>
       </c>
-      <c r="J43" s="1">
+      <c r="I43" s="1">
         <v>1.2580000000000382</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
-      </c>
-      <c r="J44" s="1">
+        <v>148</v>
+      </c>
+      <c r="I44" s="1">
         <v>0.757000000000005</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="S44" t="s">
+        <v>131</v>
+      </c>
       <c r="T44" t="s">
         <v>131</v>
       </c>
@@ -2489,107 +2487,107 @@
       <c r="X44" t="s">
         <v>131</v>
       </c>
-      <c r="Y44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>141</v>
       </c>
-      <c r="F45" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45" s="1">
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="1">
         <v>29.89</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="1">
+        <v>148</v>
+      </c>
+      <c r="I46" s="1">
         <v>29.89</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="1">
+        <v>148</v>
+      </c>
+      <c r="I47" s="1">
         <v>17.445</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="1">
+        <v>148</v>
+      </c>
+      <c r="I48" s="1">
         <v>-71.629000000000019</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="1">
+        <v>148</v>
+      </c>
+      <c r="I49" s="1">
         <v>-77.721000000000004</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="E50" t="s">
         <v>105</v>
       </c>
+      <c r="I50" s="1">
+        <v>-17.394999999999982</v>
+      </c>
       <c r="J50" s="1">
-        <v>-17.394999999999982</v>
-      </c>
-      <c r="K50" s="1">
         <v>172</v>
       </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1"/>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" t="s">
+        <v>105</v>
+      </c>
       <c r="N50" t="s">
         <v>105</v>
       </c>
@@ -2605,8 +2603,8 @@
       <c r="R50" t="s">
         <v>105</v>
       </c>
-      <c r="S50" t="s">
-        <v>105</v>
+      <c r="U50" t="s">
+        <v>131</v>
       </c>
       <c r="V50" t="s">
         <v>131</v>
@@ -2617,87 +2615,87 @@
       <c r="X50" t="s">
         <v>131</v>
       </c>
-      <c r="Y50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
-      </c>
-      <c r="J51" s="1">
+        <v>148</v>
+      </c>
+      <c r="I51" s="1">
         <v>-2.0950000000000273</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="3">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="J52" s="1">
+        <v>148</v>
+      </c>
+      <c r="I52" s="1">
         <v>-8.8669999999999618</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
         <v>105</v>
       </c>
-      <c r="J53" s="1">
+      <c r="I53" s="1">
         <v>-152.239</v>
       </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="1">
+        <v>148</v>
+      </c>
+      <c r="I54" s="1">
         <v>-8.4569999999999936</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
       <c r="E55" t="s">
         <v>105</v>
       </c>
+      <c r="I55" s="1">
+        <v>-13.512999999999977</v>
+      </c>
       <c r="J55" s="1">
-        <v>-13.512999999999977</v>
-      </c>
-      <c r="K55" s="1">
         <v>172</v>
       </c>
-      <c r="L55" s="3">
-        <v>1</v>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>105</v>
       </c>
       <c r="N55" t="s">
         <v>105</v>
@@ -2714,8 +2712,8 @@
       <c r="R55" t="s">
         <v>105</v>
       </c>
-      <c r="S55" t="s">
-        <v>105</v>
+      <c r="U55" t="s">
+        <v>131</v>
       </c>
       <c r="V55" t="s">
         <v>131</v>
@@ -2726,239 +2724,239 @@
       <c r="X55" t="s">
         <v>131</v>
       </c>
-      <c r="Y55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
       <c r="E56" t="s">
         <v>105</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="J56" s="1">
+      <c r="I56" s="1">
         <v>-19.202999999999975</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
         <v>105</v>
       </c>
-      <c r="J57" s="1">
+      <c r="I57" s="1">
         <v>1.6440000000000055</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
       <c r="E58" t="s">
         <v>105</v>
       </c>
+      <c r="I58" s="1">
+        <v>-1.3600000000000136</v>
+      </c>
       <c r="J58" s="1">
-        <v>-1.3600000000000136</v>
-      </c>
-      <c r="K58" s="1">
         <v>174.1</v>
       </c>
-      <c r="L58" s="3">
-        <v>1</v>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>105</v>
       </c>
       <c r="P58" t="s">
         <v>105</v>
       </c>
-      <c r="Q58" t="s">
-        <v>105</v>
-      </c>
-      <c r="S58" t="s">
-        <v>105</v>
-      </c>
-      <c r="U58" t="s">
+      <c r="R58" t="s">
+        <v>105</v>
+      </c>
+      <c r="T58" t="s">
+        <v>131</v>
+      </c>
+      <c r="V58" t="s">
         <v>131</v>
       </c>
       <c r="W58" t="s">
         <v>131</v>
       </c>
-      <c r="X58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
       <c r="E59" t="s">
         <v>105</v>
       </c>
-      <c r="J59" s="1">
+      <c r="I59" s="1">
         <v>-7.0609999999999786</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="3">
-        <v>1</v>
+      <c r="J59" s="1"/>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>105</v>
       </c>
       <c r="P59" t="s">
         <v>105</v>
       </c>
-      <c r="Q59" t="s">
-        <v>105</v>
-      </c>
-      <c r="S59" t="s">
-        <v>105</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="R59" t="s">
+        <v>105</v>
+      </c>
+      <c r="T59" t="s">
+        <v>131</v>
+      </c>
+      <c r="V59" t="s">
         <v>131</v>
       </c>
       <c r="W59" t="s">
         <v>131</v>
       </c>
-      <c r="X59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>105</v>
       </c>
-      <c r="J60" s="1">
+      <c r="I60" s="1">
         <v>1.4200000000000159</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="3">
-        <v>1</v>
+      <c r="J60" s="1"/>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>105</v>
       </c>
       <c r="P60" t="s">
         <v>105</v>
       </c>
-      <c r="Q60" t="s">
-        <v>105</v>
-      </c>
-      <c r="S60" t="s">
-        <v>105</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="R60" t="s">
+        <v>105</v>
+      </c>
+      <c r="T60" t="s">
+        <v>131</v>
+      </c>
+      <c r="V60" t="s">
         <v>131</v>
       </c>
       <c r="W60" t="s">
         <v>131</v>
       </c>
-      <c r="X60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>105</v>
       </c>
-      <c r="J61" s="1">
+      <c r="I61" s="1">
         <v>0.2470000000000141</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="3">
-        <v>1</v>
+      <c r="J61" s="1"/>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>105</v>
       </c>
       <c r="P61" t="s">
         <v>105</v>
       </c>
-      <c r="Q61" t="s">
-        <v>105</v>
-      </c>
-      <c r="S61" t="s">
-        <v>105</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="R61" t="s">
+        <v>105</v>
+      </c>
+      <c r="T61" t="s">
+        <v>131</v>
+      </c>
+      <c r="V61" t="s">
         <v>131</v>
       </c>
       <c r="W61" t="s">
         <v>131</v>
       </c>
-      <c r="X61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
-      <c r="F62" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" t="s">
         <v>29</v>
       </c>
-      <c r="J62" s="1">
+      <c r="I62" s="1">
         <v>-3.8120000000000118</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="F63" t="s">
-        <v>105</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="1">
         <v>-3.3129999999999882</v>
       </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="3">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
-      <c r="F64" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
       </c>
+      <c r="I64" s="1">
+        <v>-25.810000000000002</v>
+      </c>
       <c r="J64" s="1">
-        <v>-25.810000000000002</v>
-      </c>
-      <c r="K64" s="1">
         <v>179.5</v>
       </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64" t="s">
         <v>105</v>
       </c>
       <c r="P64" t="s">
@@ -2971,9 +2969,9 @@
         <v>105</v>
       </c>
       <c r="S64" t="s">
-        <v>105</v>
-      </c>
-      <c r="T64" t="s">
+        <v>131</v>
+      </c>
+      <c r="U64" t="s">
         <v>131</v>
       </c>
       <c r="V64" t="s">
@@ -2985,71 +2983,71 @@
       <c r="X64" t="s">
         <v>131</v>
       </c>
-      <c r="Y64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
       <c r="E65" t="s">
         <v>105</v>
       </c>
-      <c r="J65" s="1">
+      <c r="I65" s="1">
         <v>2.0149999999999864</v>
       </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-      <c r="P65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
-      </c>
-      <c r="J66" s="1">
+        <v>148</v>
+      </c>
+      <c r="I66" s="1">
         <v>12.399000000000001</v>
       </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
-      <c r="E67" t="s">
-        <v>105</v>
-      </c>
-      <c r="J67" s="1">
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="1">
         <v>6.8990000000000009</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J67" s="1"/>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-      <c r="J68" s="1">
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="1">
         <v>-1.9350000000000023</v>
       </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="3">
-        <v>1</v>
+      <c r="J68" s="1"/>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>105</v>
       </c>
       <c r="P68" t="s">
         <v>105</v>
@@ -3061,7 +3059,7 @@
         <v>105</v>
       </c>
       <c r="S68" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="T68" t="s">
         <v>131</v>
@@ -3078,22 +3076,19 @@
       <c r="X68" t="s">
         <v>131</v>
       </c>
-      <c r="Y68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="J69" s="1">
+        <v>148</v>
+      </c>
+      <c r="I69" s="1">
         <v>10.725000000000023</v>
       </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="3">
         <v>1</v>
       </c>
     </row>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC049484-D615-423F-BF5B-4E8EA27EF15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ED954-0D19-42CB-85C8-9581B8CFE7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
@@ -982,9 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H57" sqref="H57"/>
+      <selection pane="topRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,8 +1601,8 @@
       <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
-        <v>105</v>
+      <c r="B16" t="s">
+        <v>148</v>
       </c>
       <c r="I16" s="1">
         <v>-3.7799999999999727</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -2652,8 +2652,8 @@
       <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="E53" t="s">
-        <v>105</v>
+      <c r="B53" t="s">
+        <v>148</v>
       </c>
       <c r="I53" s="1">
         <v>-152.239</v>

--- a/xmas.xlsx
+++ b/xmas.xlsx
@@ -8,16 +8,74 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ED954-0D19-42CB-85C8-9581B8CFE7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACC94BF-B9B2-439D-B0AF-69CA6E747CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39245F0B-209B-4EE1-8443-268885F9A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="minputs" sheetId="1" r:id="rId1"/>
     <sheet name="parts" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="tempo" sheetId="3" r:id="rId4"/>
+    <sheet name="tempo" sheetId="3" r:id="rId3"/>
+    <sheet name="vjsync" sheetId="6" r:id="rId4"/>
+    <sheet name="dansvideo" sheetId="7" r:id="rId5"/>
+    <sheet name="flro" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">dansvideo!$B$23</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">vjsync!$B$8:$B$9</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">dansvideo!$E$3</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">vjsync!$F$5</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="189">
   <si>
     <t>asax1-astrid.mov</t>
   </si>
@@ -507,6 +565,120 @@
   </si>
   <si>
     <t>shortend</t>
+  </si>
+  <si>
+    <t>origm</t>
+  </si>
+  <si>
+    <t>origt</t>
+  </si>
+  <si>
+    <t>newm</t>
+  </si>
+  <si>
+    <t>newt</t>
+  </si>
+  <si>
+    <t>sum sq fout</t>
+  </si>
+  <si>
+    <t>volgende</t>
+  </si>
+  <si>
+    <t>cut out</t>
+  </si>
+  <si>
+    <t>cut in</t>
+  </si>
+  <si>
+    <t>fout</t>
+  </si>
+  <si>
+    <t>uiteindelijke tijd voor dans voor zelfde tel</t>
+  </si>
+  <si>
+    <t>tel maat</t>
+  </si>
+  <si>
+    <t>muziektijd</t>
+  </si>
+  <si>
+    <t>maat</t>
+  </si>
+  <si>
+    <t>muziekvideo</t>
+  </si>
+  <si>
+    <t>allen volledig</t>
+  </si>
+  <si>
+    <t>ine volledig</t>
+  </si>
+  <si>
+    <t>fien volledig</t>
+  </si>
+  <si>
+    <t>kaatje volledig</t>
+  </si>
+  <si>
+    <t>kaatje zichtbaar</t>
+  </si>
+  <si>
+    <t>weg</t>
+  </si>
+  <si>
+    <t>begin video</t>
+  </si>
+  <si>
+    <t>eq maat</t>
+  </si>
+  <si>
+    <t>tijd in muziekvideo</t>
+  </si>
+  <si>
+    <t>tijd in dansvideo</t>
+  </si>
+  <si>
+    <t>dansvideo</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>versnelling dansvideo</t>
+  </si>
+  <si>
+    <t>startpunt dansvideo in muziekvideo</t>
+  </si>
+  <si>
+    <t>origdelay</t>
+  </si>
+  <si>
+    <t>newdelay</t>
+  </si>
+  <si>
+    <t>newspeed</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>orig t</t>
+  </si>
+  <si>
+    <t>eind t</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>perc2-vj3.mp4</t>
   </si>
 </sst>
 </file>
@@ -516,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,16 +702,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,38 +712,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,23 +744,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -626,7 +782,60 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -651,9 +860,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:X69" totalsRowShown="0">
-  <autoFilter ref="A1:X69" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08B19322-68C3-4EA0-A673-D44EB4606A30}" name="Table2" displayName="Table2" ref="A1:Y70" totalsRowShown="0">
+  <autoFilter ref="A1:Y70" xr:uid="{30A1DE3E-42F4-4DA9-8467-C6CE6B1D8124}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{B0C19835-E274-4774-9D09-40220284649B}" name="filename"/>
     <tableColumn id="25" xr3:uid="{77808034-8199-4AB6-8A62-F0B6D50904E7}" name="n"/>
     <tableColumn id="22" xr3:uid="{CB1270B3-A7D7-4F1E-8CC9-4680CB43E652}" name="arr_a"/>
@@ -662,9 +871,10 @@
     <tableColumn id="24" xr3:uid="{38ABB43F-3243-48AB-AD4A-832278CA9A0D}" name="arr_d"/>
     <tableColumn id="2" xr3:uid="{3DBA581C-C524-486E-84CD-328E98C67D21}" name="rotation"/>
     <tableColumn id="3" xr3:uid="{9FC659AB-D766-4523-B4C8-DB33D41EB434}" name="mirrored"/>
-    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{69F0D257-BA13-457E-8A44-0B85EB49DA81}" name="delay" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{EF292FFE-A6E7-447F-B1E1-2BAF7698D8F6}" name="speed" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{8B09AD13-58B1-4F97-8B08-6FD35F7421F7}" name="shortend" dataDxfId="1" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{FB3573CD-F65E-4D2C-99F4-503E5783102A}" name="weight" dataDxfId="0" totalsRowDxfId="19"/>
     <tableColumn id="5" xr3:uid="{39A1BC66-D558-4CDD-9315-CF83E957CC05}" name="arr_1"/>
     <tableColumn id="6" xr3:uid="{71732384-E511-4568-9CCF-D50192088401}" name="arr_2"/>
     <tableColumn id="8" xr3:uid="{34B2DE20-F220-4214-81DF-031315AF37A2}" name="arr_3"/>
@@ -710,10 +920,43 @@
     <tableColumn id="15" xr3:uid="{CBDF56F3-C1C0-4F8E-8576-6C7263A886D8}" name="tpt2"/>
     <tableColumn id="12" xr3:uid="{C7E9C7EF-9442-4A47-AFB6-180CB4C759A0}" name="tsax"/>
     <tableColumn id="19" xr3:uid="{78E9FF5F-457A-49D4-A46A-BF463B6E45D8}" name="tuba"/>
-    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{B60950AB-00E3-421B-869E-50A374C31D20}" name="lyrics" dataDxfId="23"/>
     <tableColumn id="25" xr3:uid="{0184330B-1672-42B1-B36F-56A5B63136A9}" name="lights"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C43791C8-0B02-4EBC-B2E4-5670E333E3DA}" name="Table14" displayName="Table14" ref="A15:F22" totalsRowCount="1">
+  <autoFilter ref="A15:F21" xr:uid="{8B2CAC42-FA1B-4C1C-89B6-3BF247053995}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E2A2DDAE-49E4-4A7E-B036-851508CC7955}" name="muziekvideo" dataDxfId="13" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CDE7AE94-BF5D-48AF-9F8A-0A44AB08FCE3}" name="maat" dataDxfId="12" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CFF3533E-1CD3-4B31-AFF0-0161A11DBE1F}" name="muziektijd" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3C36C6A6-2E93-439A-BCF4-22FA774906AF}" name="tel maat" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4D339C38-4B6F-43BC-8573-055DB3AD4335}" name="uiteindelijke tijd voor dans voor zelfde tel" totalsRowLabel="sum sq fout" dataDxfId="9" totalsRowDxfId="3">
+      <calculatedColumnFormula>D3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{563A9B49-E0F4-496E-B4FF-A80A4A05745D}" name="fout" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
+      <calculatedColumnFormula>Table14[[#This Row],[muziektijd]]-Table14[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]</calculatedColumnFormula>
+      <totalsRowFormula>F17*F17+F18*F18+F19*F19+F20*F20</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A437B33-F6CE-4A81-94AC-FE1E8A6AB2A4}" name="Table25" displayName="Table25" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{B2C7C1F8-FDE4-4694-834B-BFC5492A928F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6F89CECD-0273-478E-A29D-DCBBE92203C3}" name="dansvideo"/>
+    <tableColumn id="2" xr3:uid="{88F0579C-38FE-40D6-BC3B-A1294AACDB84}" name="tijd in dansvideo" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{BDFDF535-1ECF-44BF-BB11-BD44658FCA4F}" name="tel maat" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{11A30F11-9638-4489-ABE0-8F3E52B19B6D}" name="tijd in muziekvideo" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -980,11 +1223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B54" sqref="B54"/>
+      <selection pane="topRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,11 +1237,13 @@
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="23" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="13.42578125" style="11" customWidth="1"/>
+    <col min="13" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1027,52 +1272,55 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1085,16 +1333,16 @@
       <c r="I2" s="1">
         <v>-17.980000000000018</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="S2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="T2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1104,17 +1352,14 @@
       <c r="I3" s="1">
         <v>-31.383000000000038</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <f>2*60+54</f>
         <v>174</v>
       </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" t="s">
         <v>105</v>
       </c>
@@ -1131,9 +1376,9 @@
         <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" t="s">
         <v>131</v>
       </c>
       <c r="V3" t="s">
@@ -1145,8 +1390,11 @@
       <c r="X3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1156,16 +1404,13 @@
       <c r="I4" s="1">
         <v>-14.716000000000008</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>176.5</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" t="s">
-        <v>105</v>
-      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" t="s">
         <v>105</v>
       </c>
@@ -1182,9 +1427,9 @@
         <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>131</v>
-      </c>
-      <c r="U4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" t="s">
         <v>131</v>
       </c>
       <c r="V4" t="s">
@@ -1196,8 +1441,11 @@
       <c r="X4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1207,16 +1455,13 @@
       <c r="I5" s="1">
         <v>-2.5590000000000259</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>175.2</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" t="s">
         <v>105</v>
       </c>
@@ -1233,9 +1478,9 @@
         <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
         <v>131</v>
       </c>
       <c r="V5" t="s">
@@ -1247,8 +1492,11 @@
       <c r="X5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1258,13 +1506,13 @@
       <c r="I6" s="1">
         <v>-37.585000000000036</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -1275,14 +1523,11 @@
         <f>-22.326</f>
         <v>-22.326000000000001</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" t="s">
         <v>105</v>
       </c>
@@ -1298,8 +1543,8 @@
       <c r="R7" t="s">
         <v>105</v>
       </c>
-      <c r="U7" t="s">
-        <v>131</v>
+      <c r="S7" t="s">
+        <v>105</v>
       </c>
       <c r="V7" t="s">
         <v>131</v>
@@ -1310,8 +1555,11 @@
       <c r="X7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1324,14 +1572,11 @@
       <c r="I8" s="1">
         <v>-9.7730000000000246</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
       <c r="N8" t="s">
         <v>105</v>
       </c>
@@ -1347,8 +1592,8 @@
       <c r="R8" t="s">
         <v>105</v>
       </c>
-      <c r="U8" t="s">
-        <v>131</v>
+      <c r="S8" t="s">
+        <v>105</v>
       </c>
       <c r="V8" t="s">
         <v>131</v>
@@ -1359,8 +1604,11 @@
       <c r="X8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1370,21 +1618,18 @@
       <c r="I9" s="1">
         <v>-0.38700000000000045</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f>2*60+56</f>
         <v>176</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" t="s">
-        <v>105</v>
-      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" t="s">
         <v>105</v>
       </c>
       <c r="Q9" t="s">
@@ -1393,8 +1638,8 @@
       <c r="R9" t="s">
         <v>105</v>
       </c>
-      <c r="U9" t="s">
-        <v>131</v>
+      <c r="S9" t="s">
+        <v>105</v>
       </c>
       <c r="V9" t="s">
         <v>131</v>
@@ -1405,8 +1650,11 @@
       <c r="X9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1416,16 +1664,16 @@
       <c r="I10" s="1">
         <v>-6.1119999999999663</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1435,13 +1683,13 @@
       <c r="I11" s="1">
         <v>-1.41700000000003</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1451,15 +1699,12 @@
       <c r="I12" s="1">
         <v>-2.3670000000000186</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
         <v>105</v>
       </c>
       <c r="P12" t="s">
@@ -1472,12 +1717,12 @@
         <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T12" t="s">
         <v>131</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U12" t="s">
         <v>131</v>
       </c>
       <c r="W12" t="s">
@@ -1486,8 +1731,11 @@
       <c r="X12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1497,15 +1745,12 @@
       <c r="I13" s="1">
         <v>-20.105999999999995</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
         <v>105</v>
       </c>
       <c r="P13" t="s">
@@ -1518,12 +1763,12 @@
         <v>105</v>
       </c>
       <c r="S13" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
         <v>131</v>
       </c>
-      <c r="V13" t="s">
+      <c r="U13" t="s">
         <v>131</v>
       </c>
       <c r="W13" t="s">
@@ -1532,8 +1777,11 @@
       <c r="X13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1543,17 +1791,14 @@
       <c r="I14" s="1">
         <v>-0.14699999999999136</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>177</v>
       </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" t="s">
         <v>105</v>
       </c>
       <c r="P14" t="s">
@@ -1566,12 +1811,12 @@
         <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T14" t="s">
         <v>131</v>
       </c>
-      <c r="V14" t="s">
+      <c r="U14" t="s">
         <v>131</v>
       </c>
       <c r="W14" t="s">
@@ -1580,8 +1825,11 @@
       <c r="X14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1591,13 +1839,13 @@
       <c r="I15" s="1">
         <v>-5.09699999999998</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1607,13 +1855,13 @@
       <c r="I16" s="1">
         <v>-3.7799999999999727</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1623,15 +1871,12 @@
       <c r="I17" s="1">
         <v>-8.285000000000025</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
         <v>105</v>
       </c>
       <c r="P17" t="s">
@@ -1644,12 +1889,12 @@
         <v>105</v>
       </c>
       <c r="S17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T17" t="s">
         <v>131</v>
       </c>
-      <c r="V17" t="s">
+      <c r="U17" t="s">
         <v>131</v>
       </c>
       <c r="W17" t="s">
@@ -1658,8 +1903,11 @@
       <c r="X17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1669,13 +1917,13 @@
       <c r="I18" s="1">
         <v>-2.1490000000000009</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1685,13 +1933,13 @@
       <c r="I19" s="1">
         <v>-7.8550000000000182</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1702,15 +1950,12 @@
         <f>-0.358-0.1</f>
         <v>-0.45799999999999996</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="11">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" t="s">
         <v>105</v>
       </c>
       <c r="P20" t="s">
@@ -1723,12 +1968,12 @@
         <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T20" t="s">
         <v>131</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U20" t="s">
         <v>131</v>
       </c>
       <c r="W20" t="s">
@@ -1737,8 +1982,11 @@
       <c r="X20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1749,15 +1997,12 @@
         <f>-32-0.05</f>
         <v>-32.049999999999997</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" t="s">
-        <v>105</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" t="s">
         <v>105</v>
       </c>
       <c r="P21" t="s">
@@ -1770,12 +2015,12 @@
         <v>105</v>
       </c>
       <c r="S21" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T21" t="s">
         <v>131</v>
       </c>
-      <c r="V21" t="s">
+      <c r="U21" t="s">
         <v>131</v>
       </c>
       <c r="W21" t="s">
@@ -1784,8 +2029,11 @@
       <c r="X21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1795,13 +2043,13 @@
       <c r="I22" s="1">
         <v>168.13499999999999</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="11">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1809,15 +2057,18 @@
         <v>105</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3">
+        <v>146.42855493275192</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.3386802301122693</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="11">
         <v>5</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1825,15 +2076,15 @@
         <v>105</v>
       </c>
       <c r="I24" s="1">
-        <v>0.51099999999996726</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>100.7</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1843,29 +2094,29 @@
       <c r="I25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>148</v>
+      <c r="F26" t="s">
+        <v>105</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1873,15 +2124,15 @@
         <v>105</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1889,15 +2140,15 @@
         <v>105</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>161.00800000000001</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="11">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1910,16 +2161,16 @@
       <c r="I29" s="1">
         <v>-1.8500000000000227</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="T29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="L29" s="11">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="U29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1932,14 +2183,11 @@
       <c r="I30" s="1">
         <v>1.1340000000000146</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="N30" t="s">
-        <v>105</v>
-      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="11">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="O30" t="s">
         <v>105</v>
       </c>
@@ -1953,12 +2201,12 @@
         <v>105</v>
       </c>
       <c r="S30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T30" t="s">
         <v>131</v>
       </c>
-      <c r="V30" t="s">
+      <c r="U30" t="s">
         <v>131</v>
       </c>
       <c r="W30" t="s">
@@ -1967,8 +2215,11 @@
       <c r="X30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -1978,14 +2229,11 @@
       <c r="I31" s="1">
         <v>-8.6340000000000146</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="N31" t="s">
-        <v>105</v>
-      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="11">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1"/>
       <c r="O31" t="s">
         <v>105</v>
       </c>
@@ -1999,12 +2247,12 @@
         <v>105</v>
       </c>
       <c r="S31" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T31" t="s">
         <v>131</v>
       </c>
-      <c r="V31" t="s">
+      <c r="U31" t="s">
         <v>131</v>
       </c>
       <c r="W31" t="s">
@@ -2013,8 +2261,11 @@
       <c r="X31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -2024,14 +2275,11 @@
       <c r="I32" s="1">
         <v>-10.605000000000018</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="N32" t="s">
-        <v>105</v>
-      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="O32" t="s">
         <v>105</v>
       </c>
@@ -2045,12 +2293,12 @@
         <v>105</v>
       </c>
       <c r="S32" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T32" t="s">
         <v>131</v>
       </c>
-      <c r="V32" t="s">
+      <c r="U32" t="s">
         <v>131</v>
       </c>
       <c r="W32" t="s">
@@ -2059,8 +2307,11 @@
       <c r="X32" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2070,14 +2321,11 @@
       <c r="I33" s="1">
         <v>1.5080000000000382</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="N33" t="s">
-        <v>105</v>
-      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
       <c r="O33" t="s">
         <v>105</v>
       </c>
@@ -2091,12 +2339,12 @@
         <v>105</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T33" t="s">
         <v>131</v>
       </c>
-      <c r="V33" t="s">
+      <c r="U33" t="s">
         <v>131</v>
       </c>
       <c r="W33" t="s">
@@ -2105,8 +2353,11 @@
       <c r="X33" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2116,13 +2367,13 @@
       <c r="I34" s="1">
         <v>-10.673000000000002</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="L34" s="11">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2132,16 +2383,13 @@
       <c r="I35" s="1">
         <v>-10.932000000000016</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>180</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="N35" t="s">
-        <v>105</v>
-      </c>
+      <c r="L35" s="11">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1"/>
       <c r="O35" t="s">
         <v>105</v>
       </c>
@@ -2155,12 +2403,12 @@
         <v>105</v>
       </c>
       <c r="S35" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T35" t="s">
         <v>131</v>
       </c>
-      <c r="V35" t="s">
+      <c r="U35" t="s">
         <v>131</v>
       </c>
       <c r="W35" t="s">
@@ -2169,8 +2417,11 @@
       <c r="X35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2183,14 +2434,11 @@
       <c r="I36" s="1">
         <v>-22.73599999999999</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" t="s">
-        <v>105</v>
-      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1"/>
       <c r="N36" t="s">
         <v>105</v>
       </c>
@@ -2207,9 +2455,9 @@
         <v>105</v>
       </c>
       <c r="S36" t="s">
-        <v>131</v>
-      </c>
-      <c r="U36" t="s">
+        <v>105</v>
+      </c>
+      <c r="T36" t="s">
         <v>131</v>
       </c>
       <c r="V36" t="s">
@@ -2221,8 +2469,11 @@
       <c r="X36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2232,14 +2483,11 @@
       <c r="I37" s="1">
         <v>0.96500000000003183</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" t="s">
-        <v>105</v>
-      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" t="s">
         <v>105</v>
       </c>
@@ -2256,9 +2504,9 @@
         <v>105</v>
       </c>
       <c r="S37" t="s">
-        <v>131</v>
-      </c>
-      <c r="U37" t="s">
+        <v>105</v>
+      </c>
+      <c r="T37" t="s">
         <v>131</v>
       </c>
       <c r="V37" t="s">
@@ -2270,8 +2518,11 @@
       <c r="X37" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2281,13 +2532,13 @@
       <c r="I38" s="1">
         <v>0.18299999999999272</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+      <c r="L38" s="11">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2295,31 +2546,29 @@
         <v>105</v>
       </c>
       <c r="I39" s="1">
-        <v>0.5180000000000291</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1" t="s">
+        <f>0.518000000000029-1/30</f>
+        <v>0.48466666666669567</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N39" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="O39" t="s">
         <v>105</v>
       </c>
       <c r="R39" t="s">
         <v>105</v>
       </c>
       <c r="S39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T39" t="s">
         <v>131</v>
       </c>
-      <c r="V39" t="s">
+      <c r="U39" t="s">
         <v>131</v>
       </c>
       <c r="W39" t="s">
@@ -2328,8 +2577,11 @@
       <c r="X39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2342,16 +2594,13 @@
       <c r="I40" s="1">
         <v>-12.692000000000007</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>169.38942360999999</v>
       </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="N40" t="s">
-        <v>105</v>
-      </c>
+      <c r="L40" s="11">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1"/>
       <c r="O40" t="s">
         <v>105</v>
       </c>
@@ -2365,12 +2614,12 @@
         <v>105</v>
       </c>
       <c r="S40" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T40" t="s">
         <v>131</v>
       </c>
-      <c r="V40" t="s">
+      <c r="U40" t="s">
         <v>131</v>
       </c>
       <c r="W40" t="s">
@@ -2379,8 +2628,11 @@
       <c r="X40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2390,21 +2642,18 @@
       <c r="I41" s="1">
         <v>-4.86099999999999</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>175.8</v>
       </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" t="s">
-        <v>105</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="L41" s="11">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" t="s">
         <v>105</v>
       </c>
       <c r="S41" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="T41" t="s">
         <v>131</v>
@@ -2421,8 +2670,11 @@
       <c r="X41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2432,13 +2684,13 @@
       <c r="I42" s="1">
         <v>-7.0950000000000273</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+      <c r="L42" s="11">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2448,13 +2700,13 @@
       <c r="I43" s="1">
         <v>1.2580000000000382</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+      <c r="L43" s="11">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2464,14 +2716,11 @@
       <c r="I44" s="1">
         <v>0.757000000000005</v>
       </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="S44" t="s">
-        <v>131</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1"/>
       <c r="T44" t="s">
         <v>131</v>
       </c>
@@ -2487,8 +2736,11 @@
       <c r="X44" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -2498,13 +2750,13 @@
       <c r="I45" s="1">
         <v>29.89</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+      <c r="L45" s="11">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -2514,581 +2766,600 @@
       <c r="I46" s="1">
         <v>29.89</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+      <c r="L46" s="11">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>142</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="1">
-        <v>17.445</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>134.08259726338147</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="11">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="1">
-        <v>-71.629000000000019</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48">
+        <v>122.37096644152135</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
         <v>148</v>
       </c>
       <c r="I49" s="1">
+        <v>-71.629000000000019</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="11">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="1">
         <v>-77.721000000000004</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="K50" s="1"/>
+      <c r="L50" s="11">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="E50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="1">
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="1">
         <v>-17.394999999999982</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K51" s="1">
         <v>172</v>
       </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="M50" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50" t="s">
-        <v>105</v>
-      </c>
-      <c r="O50" t="s">
-        <v>105</v>
-      </c>
-      <c r="P50" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>105</v>
-      </c>
-      <c r="R50" t="s">
-        <v>105</v>
-      </c>
-      <c r="U50" t="s">
-        <v>131</v>
-      </c>
-      <c r="V50" t="s">
-        <v>131</v>
-      </c>
-      <c r="W50" t="s">
-        <v>131</v>
-      </c>
-      <c r="X50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="L51" s="11">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51" t="s">
+        <v>105</v>
+      </c>
+      <c r="P51" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>105</v>
+      </c>
+      <c r="R51" t="s">
+        <v>105</v>
+      </c>
+      <c r="S51" t="s">
+        <v>105</v>
+      </c>
+      <c r="V51" t="s">
+        <v>131</v>
+      </c>
+      <c r="W51" t="s">
+        <v>131</v>
+      </c>
+      <c r="X51" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-      <c r="I51" s="1">
-        <v>-2.0950000000000273</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>148</v>
       </c>
       <c r="I52" s="1">
-        <v>-8.8669999999999618</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-2.0950000000000273</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="11">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>148</v>
       </c>
       <c r="I53" s="1">
-        <v>-152.239</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-8.8669999999999618</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="11">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>148</v>
       </c>
       <c r="I54" s="1">
+        <v>-152.239</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="1">
         <v>-8.4569999999999936</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="K55" s="1"/>
+      <c r="L55" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="E55" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="1">
         <v>-13.512999999999977</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K56" s="1">
         <v>172</v>
       </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>105</v>
-      </c>
-      <c r="N55" t="s">
-        <v>105</v>
-      </c>
-      <c r="O55" t="s">
-        <v>105</v>
-      </c>
-      <c r="P55" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>105</v>
-      </c>
-      <c r="R55" t="s">
-        <v>105</v>
-      </c>
-      <c r="U55" t="s">
-        <v>131</v>
-      </c>
-      <c r="V55" t="s">
-        <v>131</v>
-      </c>
-      <c r="W55" t="s">
-        <v>131</v>
-      </c>
-      <c r="X55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="L56" s="11">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+      <c r="O56" t="s">
+        <v>105</v>
+      </c>
+      <c r="P56" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>105</v>
+      </c>
+      <c r="R56" t="s">
+        <v>105</v>
+      </c>
+      <c r="S56" t="s">
+        <v>105</v>
+      </c>
+      <c r="V56" t="s">
+        <v>131</v>
+      </c>
+      <c r="W56" t="s">
+        <v>131</v>
+      </c>
+      <c r="X56" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>118</v>
       </c>
-      <c r="E56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I57" s="1">
         <v>-19.202999999999975</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="K57" s="1"/>
+      <c r="L57" s="11">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="F57" t="s">
-        <v>105</v>
-      </c>
-      <c r="I57" s="1">
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="1">
         <v>1.6440000000000055</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="3">
-        <v>1</v>
-      </c>
-      <c r="P57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="K58" s="1"/>
+      <c r="L58" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="E58" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="1">
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="1">
         <v>-1.3600000000000136</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K59" s="1">
         <v>174.1</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>105</v>
-      </c>
-      <c r="P58" t="s">
-        <v>105</v>
-      </c>
-      <c r="R58" t="s">
-        <v>105</v>
-      </c>
-      <c r="T58" t="s">
-        <v>131</v>
-      </c>
-      <c r="V58" t="s">
-        <v>131</v>
-      </c>
-      <c r="W58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="L59" s="11">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>105</v>
+      </c>
+      <c r="S59" t="s">
+        <v>105</v>
+      </c>
+      <c r="U59" t="s">
+        <v>131</v>
+      </c>
+      <c r="W59" t="s">
+        <v>131</v>
+      </c>
+      <c r="X59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="E59" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="1">
         <v>-7.0609999999999786</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>105</v>
-      </c>
-      <c r="P59" t="s">
-        <v>105</v>
-      </c>
-      <c r="R59" t="s">
-        <v>105</v>
-      </c>
-      <c r="T59" t="s">
-        <v>131</v>
-      </c>
-      <c r="V59" t="s">
-        <v>131</v>
-      </c>
-      <c r="W59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="K60" s="1"/>
+      <c r="L60" s="11">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>105</v>
+      </c>
+      <c r="S60" t="s">
+        <v>105</v>
+      </c>
+      <c r="U60" t="s">
+        <v>131</v>
+      </c>
+      <c r="W60" t="s">
+        <v>131</v>
+      </c>
+      <c r="X60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>111</v>
       </c>
-      <c r="E60" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" s="1">
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="1">
         <v>1.4200000000000159</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>105</v>
-      </c>
-      <c r="P60" t="s">
-        <v>105</v>
-      </c>
-      <c r="R60" t="s">
-        <v>105</v>
-      </c>
-      <c r="T60" t="s">
-        <v>131</v>
-      </c>
-      <c r="V60" t="s">
-        <v>131</v>
-      </c>
-      <c r="W60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="K61" s="1"/>
+      <c r="L61" s="11">
+        <v>1</v>
+      </c>
+      <c r="P61" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>105</v>
+      </c>
+      <c r="S61" t="s">
+        <v>105</v>
+      </c>
+      <c r="U61" t="s">
+        <v>131</v>
+      </c>
+      <c r="W61" t="s">
+        <v>131</v>
+      </c>
+      <c r="X61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>24</v>
       </c>
-      <c r="E61" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" s="1">
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="1">
         <v>0.2470000000000141</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>105</v>
-      </c>
-      <c r="P61" t="s">
-        <v>105</v>
-      </c>
-      <c r="R61" t="s">
-        <v>105</v>
-      </c>
-      <c r="T61" t="s">
-        <v>131</v>
-      </c>
-      <c r="V61" t="s">
-        <v>131</v>
-      </c>
-      <c r="W61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="K62" s="1"/>
+      <c r="L62" s="11">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>105</v>
+      </c>
+      <c r="S62" t="s">
+        <v>105</v>
+      </c>
+      <c r="U62" t="s">
+        <v>131</v>
+      </c>
+      <c r="W62" t="s">
+        <v>131</v>
+      </c>
+      <c r="X62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>25</v>
       </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I63" s="1">
         <v>-3.8120000000000118</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="K63" s="1"/>
+      <c r="L63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>26</v>
       </c>
-      <c r="D63" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" s="1">
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="1">
         <v>-3.3129999999999882</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="3">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="K64" s="1"/>
+      <c r="L64" s="11">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>117</v>
       </c>
-      <c r="D64" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" t="s">
         <v>29</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I65" s="1">
         <v>-25.810000000000002</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K65" s="1">
         <v>179.5</v>
       </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="M64" t="s">
-        <v>105</v>
-      </c>
-      <c r="O64" t="s">
-        <v>105</v>
-      </c>
-      <c r="P64" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>105</v>
-      </c>
-      <c r="R64" t="s">
-        <v>105</v>
-      </c>
-      <c r="S64" t="s">
-        <v>131</v>
-      </c>
-      <c r="U64" t="s">
-        <v>131</v>
-      </c>
-      <c r="V64" t="s">
-        <v>131</v>
-      </c>
-      <c r="W64" t="s">
-        <v>131</v>
-      </c>
-      <c r="X64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="L65" s="11">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>105</v>
+      </c>
+      <c r="P65" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>105</v>
+      </c>
+      <c r="R65" t="s">
+        <v>105</v>
+      </c>
+      <c r="S65" t="s">
+        <v>105</v>
+      </c>
+      <c r="T65" t="s">
+        <v>131</v>
+      </c>
+      <c r="V65" t="s">
+        <v>131</v>
+      </c>
+      <c r="W65" t="s">
+        <v>131</v>
+      </c>
+      <c r="X65" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>103</v>
       </c>
-      <c r="E65" t="s">
-        <v>105</v>
-      </c>
-      <c r="I65" s="1">
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="1">
         <v>2.0149999999999864</v>
       </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="K66" s="1"/>
+      <c r="L66" s="11">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>50</v>
-      </c>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="I66" s="1">
-        <v>12.399000000000001</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>51</v>
       </c>
       <c r="B67" t="s">
         <v>148</v>
       </c>
       <c r="I67" s="1">
+        <v>12.399000000000001</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" s="1">
         <v>6.8990000000000009</v>
       </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="K68" s="1"/>
+      <c r="L68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>101</v>
       </c>
-      <c r="E68" t="s">
-        <v>105</v>
-      </c>
-      <c r="I68" s="1">
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="1">
         <v>-1.9350000000000023</v>
       </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>105</v>
-      </c>
-      <c r="P68" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>105</v>
-      </c>
-      <c r="R68" t="s">
-        <v>105</v>
-      </c>
-      <c r="S68" t="s">
-        <v>131</v>
-      </c>
-      <c r="T68" t="s">
-        <v>131</v>
-      </c>
-      <c r="U68" t="s">
-        <v>131</v>
-      </c>
-      <c r="V68" t="s">
-        <v>131</v>
-      </c>
-      <c r="W68" t="s">
-        <v>131</v>
-      </c>
-      <c r="X68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="K69" s="1"/>
+      <c r="L69" s="11">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>105</v>
+      </c>
+      <c r="R69" t="s">
+        <v>105</v>
+      </c>
+      <c r="S69" t="s">
+        <v>105</v>
+      </c>
+      <c r="T69" t="s">
+        <v>131</v>
+      </c>
+      <c r="U69" t="s">
+        <v>131</v>
+      </c>
+      <c r="V69" t="s">
+        <v>131</v>
+      </c>
+      <c r="W69" t="s">
+        <v>131</v>
+      </c>
+      <c r="X69" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>102</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>148</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I70" s="1">
         <v>10.725000000000023</v>
       </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="3">
+      <c r="K70" s="1"/>
+      <c r="L70" s="11">
         <v>1</v>
       </c>
     </row>
@@ -4516,794 +4787,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D352974-3C3C-46E3-9B86-52FE12335D84}">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="14" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DED98A-BE9A-4E9B-8FA1-11620A486F2F}">
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -5836,4 +5319,620 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE9FADA-9F8D-4870-BC92-2C57AE565F2E}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>44.344541669999998</v>
+      </c>
+      <c r="C3">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <v>161.00754166999999</v>
+      </c>
+      <c r="E3">
+        <f>$B$8+(B3-$B$7)/$B$9</f>
+        <v>161.0074649042466</v>
+      </c>
+      <c r="F3">
+        <f>(D3-E3)^2</f>
+        <v>5.8929808937381807E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>51.03016667</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>167.69939582999999</v>
+      </c>
+      <c r="E4">
+        <f>$B$8+(B4-$B$7)/$B$9</f>
+        <v>167.69931763116347</v>
+      </c>
+      <c r="F4">
+        <f>(D4-E4)^2</f>
+        <v>6.1150580329331108E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>F3+F4</f>
+        <v>1.2008038926671292E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5.7439999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8">
+        <v>122.37096644152135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9">
+        <v>0.99906935684764653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E05144-1CCF-49BB-8FB3-2C4ECEEEC1B5}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>146.42855493275192</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1">
+        <f>1+20/30</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="D3" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>147.67356223858692</v>
+      </c>
+      <c r="E3" s="9">
+        <f>Table25[[#This Row],[tijd in muziekvideo]]-C16</f>
+        <v>-2.6141307785110257E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1">
+        <f>2+15/30</f>
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>148.29606589150444</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1">
+        <f>4+19/30</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>149.88967524297325</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="1">
+        <f>6+25/30</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>151.53308488667545</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="1">
+        <f>9+7/30</f>
+        <v>9.2333333333333325</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>153.32589540707787</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="1">
+        <f>10+22/30</f>
+        <v>10.733333333333333</v>
+      </c>
+      <c r="D8" s="1">
+        <f>$B$23+Table25[[#This Row],[tijd in dansvideo]]/$B$24</f>
+        <v>154.44640198232938</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Table25[[#This Row],[tijd in muziekvideo]]-C21</f>
+        <v>7.4776982329382236E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="1">
+        <f>11+10/30</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="1">
+        <f>12+29/30</f>
+        <v>12.966666666666667</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="1">
+        <f>15+11/30</f>
+        <v>15.366666666666667</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="1">
+        <f>17+29/30</f>
+        <v>17.966666666666665</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="1">
+        <f>20+1/30</f>
+        <v>20.033333333333335</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1">
+        <v>147.6735625</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>148.51082031000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D4</f>
+        <v>148.29606589150444</v>
+      </c>
+      <c r="F17" s="1">
+        <f>Table14[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table14[[#This Row],[muziektijd]]</f>
+        <v>-0.21475441849557342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150.18533593999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E20" si="0">D5</f>
+        <v>149.88967524297325</v>
+      </c>
+      <c r="F18" s="1">
+        <f>Table14[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table14[[#This Row],[muziektijd]]</f>
+        <v>-0.29566069702673303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>151.85985156000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>151.53308488667545</v>
+      </c>
+      <c r="F19" s="1">
+        <f>Table14[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table14[[#This Row],[muziektijd]]</f>
+        <v>-0.32676667332455622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>153.53436719000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>153.32589540707787</v>
+      </c>
+      <c r="F20" s="1">
+        <f>Table14[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table14[[#This Row],[muziektijd]]</f>
+        <v>-0.20847178292214608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="1">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1">
+        <v>154.37162499999999</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1">
+        <f>F17*F17+F18*F18+F19*F19+F20*F20</f>
+        <v>0.28377165110004116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="1">
+        <v>146.42855493275192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.3386802301122693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA72214-FF28-43F6-A373-59DDF6957F4B}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <f>B11</f>
+        <v>167.69939582999999</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>100.69939582999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>B10</f>
+        <v>161.00754166999999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>160.00754166999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>10+20/30</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="C5">
+        <f>B11</f>
+        <v>167.69939582999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>157.03272916333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>B10</f>
+        <v>161.00754166999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>161.00754166999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>161.00754166999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>167.69939582999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B11-B10</f>
+        <v>6.6918541599999912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>